--- a/word_features/季/ENG,2021-4~2021-7,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2021-4~2021-7,主题_词矩阵.xlsx
@@ -14,543 +14,1080 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>access</t>
   </si>
   <si>
-    <t>achieve</t>
-  </si>
-  <si>
-    <t>afghanistan</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>african</t>
-  </si>
-  <si>
-    <t>aged</t>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>agre</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>agricultur</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>allevi</t>
+  </si>
+  <si>
+    <t>alway</t>
+  </si>
+  <si>
+    <t>anniversari</t>
+  </si>
+  <si>
+    <t>antipandem</t>
   </si>
   <si>
     <t>app</t>
   </si>
   <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>approved</t>
+    <t>appreci</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>asean</t>
+  </si>
+  <si>
+    <t>asia</t>
   </si>
   <si>
     <t>asian</t>
   </si>
   <si>
-    <t>asians</t>
+    <t>aspir</t>
+  </si>
+  <si>
+    <t>assembl</t>
   </si>
   <si>
     <t>assist</t>
   </si>
   <si>
-    <t>association</t>
-  </si>
-  <si>
-    <t>asymptomatic</t>
-  </si>
-  <si>
-    <t>attention</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>australians</t>
-  </si>
-  <si>
-    <t>australias</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>bell</t>
-  </si>
-  <si>
-    <t>bilateral</t>
-  </si>
-  <si>
-    <t>blood</t>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>basi</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>beij</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>benefici</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bilater</t>
+  </si>
+  <si>
+    <t>billion</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
+    <t>bri</t>
+  </si>
+  <si>
     <t>brought</t>
   </si>
   <si>
     <t>build</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>challenges</t>
+    <t>built</t>
+  </si>
+  <si>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>capac</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>carri</t>
+  </si>
+  <si>
+    <t>cdata</t>
+  </si>
+  <si>
+    <t>celebr</t>
+  </si>
+  <si>
+    <t>centenari</t>
+  </si>
+  <si>
+    <t>centuri</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>characterist</t>
   </si>
   <si>
     <t>china</t>
   </si>
   <si>
-    <t>climbers</t>
-  </si>
-  <si>
-    <t>climbing</t>
-  </si>
-  <si>
-    <t>clots</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>comosimple</t>
-  </si>
-  <si>
-    <t>compared</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>coronavac</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>countrys</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>cylinders</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>december</t>
-  </si>
-  <si>
-    <t>defeat</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>difficulties</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>disability</t>
-  </si>
-  <si>
-    <t>discussions</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>dpp</t>
-  </si>
-  <si>
-    <t>earnings</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>eff</t>
-  </si>
-  <si>
-    <t>efforts</t>
-  </si>
-  <si>
-    <t>ema</t>
-  </si>
-  <si>
-    <t>embassy</t>
-  </si>
-  <si>
-    <t>environmental</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>eu</t>
+    <t>chinaafrica</t>
+  </si>
+  <si>
+    <t>chinadaili</t>
+  </si>
+  <si>
+    <t>chinadailyandroidschemeencodeandroid</t>
+  </si>
+  <si>
+    <t>chinadailyiosschemeencodeio</t>
+  </si>
+  <si>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>closer</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>cnmobiledaili</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>commentchinadaili</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>communist</t>
+  </si>
+  <si>
+    <t>comosimpl</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>congratul</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>consensu</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>convent</t>
+  </si>
+  <si>
+    <t>convers</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>councilor</t>
+  </si>
+  <si>
+    <t>countri</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>crossbord</t>
+  </si>
+  <si>
+    <t>cultur</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decad</t>
+  </si>
+  <si>
+    <t>dedic</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>democraci</t>
+  </si>
+  <si>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>diplomat</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>divers</t>
+  </si>
+  <si>
+    <t>domest</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>emiss</t>
+  </si>
+  <si>
+    <t>enabl</t>
+  </si>
+  <si>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>engag</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>ensur</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>environ</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>equiti</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>especi</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>evolv</t>
+  </si>
+  <si>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
   </si>
   <si>
     <t>expand</t>
   </si>
   <si>
-    <t>expedition</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>facing</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expertis</t>
+  </si>
+  <si>
+    <t>explor</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>extens</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>field</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>fiscal</t>
+    <t>financ</t>
+  </si>
+  <si>
+    <t>firmli</t>
+  </si>
+  <si>
+    <t>fiveyear</t>
+  </si>
+  <si>
+    <t>focu</t>
   </si>
   <si>
     <t>focus</t>
   </si>
   <si>
-    <t>france</t>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>forg</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>friendli</t>
   </si>
   <si>
     <t>friendship</t>
   </si>
   <si>
+    <t>fulfil</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>fundament</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>gener</t>
+  </si>
+  <si>
     <t>global</t>
   </si>
   <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>grabowski</t>
-  </si>
-  <si>
-    <t>himalayan</t>
-  </si>
-  <si>
-    <t>homes</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>hours</t>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>harmoni</t>
+  </si>
+  <si>
+    <t>healthier</t>
+  </si>
+  <si>
+    <t>highlevel</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>highqual</t>
+  </si>
+  <si>
+    <t>histor</t>
+  </si>
+  <si>
+    <t>histori</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>human</t>
   </si>
   <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>initial</t>
-  </si>
-  <si>
-    <t>inspector</t>
-  </si>
-  <si>
-    <t>investors</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>israeli</t>
-  </si>
-  <si>
-    <t>johnson</t>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>humankind</t>
+  </si>
+  <si>
+    <t>ifandroid</t>
+  </si>
+  <si>
+    <t>ifiphoneipadipod</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>impetu</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>inclus</t>
+  </si>
+  <si>
+    <t>independ</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>infrastructur</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>innov</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>joint</t>
   </si>
   <si>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
     <t>jsp</t>
   </si>
   <si>
-    <t>kathmandu</t>
-  </si>
-  <si>
-    <t>kyrgyzstan</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>lockdown</t>
+    <t>justic</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>largest</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>legitim</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
   <si>
     <t>longterm</t>
   </si>
   <si>
-    <t>lowincome</t>
-  </si>
-  <si>
-    <t>macron</t>
-  </si>
-  <si>
-    <t>mainland</t>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>manag</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>market</t>
   </si>
   <si>
     <t>matchmicromessengeri</t>
   </si>
   <si>
-    <t>medicaid</t>
-  </si>
-  <si>
-    <t>medicare</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>micromessenger</t>
-  </si>
-  <si>
-    <t>ministry</t>
-  </si>
-  <si>
-    <t>modi</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
-    <t>mountaineers</t>
-  </si>
-  <si>
-    <t>mountains</t>
-  </si>
-  <si>
-    <t>mt</t>
-  </si>
-  <si>
-    <t>murphy</t>
-  </si>
-  <si>
-    <t>nepal</t>
-  </si>
-  <si>
-    <t>nepali</t>
-  </si>
-  <si>
-    <t>nma</t>
-  </si>
-  <si>
-    <t>nursing</t>
-  </si>
-  <si>
-    <t>officials</t>
+    <t>materi</t>
+  </si>
+  <si>
+    <t>mechan</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>micromesseng</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>multilater</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>navig</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>onli</t>
   </si>
   <si>
     <t>opena</t>
   </si>
   <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>organizers</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>pakistan</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>parties</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>permits</t>
-  </si>
-  <si>
-    <t>pfizer</t>
-  </si>
-  <si>
-    <t>pfizerbiontech</t>
-  </si>
-  <si>
-    <t>philippines</t>
+    <t>openingup</t>
+  </si>
+  <si>
+    <t>openwww</t>
+  </si>
+  <si>
+    <t>opinionchinadaili</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>oppos</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>pandem</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>peac</t>
+  </si>
+  <si>
+    <t>peoplecent</t>
+  </si>
+  <si>
+    <t>peopletopeopl</t>
+  </si>
+  <si>
+    <t>perspect</t>
+  </si>
+  <si>
+    <t>philosophi</t>
+  </si>
+  <si>
+    <t>photoag</t>
   </si>
   <si>
     <t>pkgnamecom</t>
   </si>
   <si>
-    <t>plane</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>pun</t>
-  </si>
-  <si>
-    <t>qomolangma</t>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pledg</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>postpandem</t>
+  </si>
+  <si>
+    <t>poverti</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>practic</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>prioriti</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>propos</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>provid</t>
+  </si>
+  <si>
+    <t>purpos</t>
+  </si>
+  <si>
+    <t>pursu</t>
+  </si>
+  <si>
+    <t>push</t>
   </si>
   <si>
     <t>qq</t>
   </si>
   <si>
-    <t>quarantine</t>
-  </si>
-  <si>
-    <t>quarterly</t>
-  </si>
-  <si>
-    <t>qureshi</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
-    <t>recipients</t>
-  </si>
-  <si>
-    <t>recovery</t>
+    <t>readi</t>
+  </si>
+  <si>
+    <t>realiz</t>
+  </si>
+  <si>
+    <t>recognit</t>
+  </si>
+  <si>
+    <t>recoveri</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>regard</t>
   </si>
   <si>
     <t>region</t>
   </si>
   <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>regulators</t>
-  </si>
-  <si>
-    <t>relations</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>researchers</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>rios</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>rollout</t>
-  </si>
-  <si>
-    <t>ruili</t>
-  </si>
-  <si>
-    <t>sahpra</t>
-  </si>
-  <si>
-    <t>saturday</t>
-  </si>
-  <si>
-    <t>schools</t>
-  </si>
-  <si>
-    <t>sdgs</t>
-  </si>
-  <si>
-    <t>sherpa</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>solidarity</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>spikes</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>syria</t>
-  </si>
-  <si>
-    <t>taiwan</t>
+    <t>rejuven</t>
+  </si>
+  <si>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resolv</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>restor</t>
+  </si>
+  <si>
+    <t>revolut</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>seri</t>
+  </si>
+  <si>
+    <t>serv</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shareweixin</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>societi</t>
+  </si>
+  <si>
+    <t>socioeconom</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>southsouth</t>
+  </si>
+  <si>
+    <t>sovereignti</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>suppli</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>tackl</t>
   </si>
   <si>
     <t>talk</t>
   </si>
   <si>
-    <t>tests</t>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>technolog</t>
+  </si>
+  <si>
+    <t>telephon</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>terror</t>
   </si>
   <si>
     <t>testua</t>
@@ -559,61 +1096,124 @@
     <t>theotino</t>
   </si>
   <si>
-    <t>thursday</t>
-  </si>
-  <si>
-    <t>tools</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>traditional</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travelers</t>
+    <t>therefor</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>tolowercas</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>tradit</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>truli</t>
+  </si>
+  <si>
+    <t>trust</t>
   </si>
   <si>
     <t>ua</t>
   </si>
   <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>urgently</t>
-  </si>
-  <si>
-    <t>vaccinated</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>unilater</t>
+  </si>
+  <si>
+    <t>uniti</t>
+  </si>
+  <si>
+    <t>unpreced</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>userag</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>valuabl</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variou</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>voic</t>
+  </si>
+  <si>
+    <t>volum</t>
   </si>
   <si>
     <t>wang</t>
   </si>
   <si>
+    <t>wangxiaoyuchinadaili</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>welcom</t>
+  </si>
+  <si>
     <t>window</t>
   </si>
   <si>
+    <t>winwin</t>
+  </si>
+  <si>
     <t>xi</t>
   </si>
   <si>
-    <t>xinhua</t>
-  </si>
-  <si>
-    <t>yunnan</t>
+    <t>yearonyear</t>
+  </si>
+  <si>
+    <t>yi</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>3.321850726852283</v>
+        <v>60.18158489033635</v>
       </c>
       <c r="C2">
-        <v>0.3333597252727027</v>
+        <v>151.8276575775413</v>
       </c>
       <c r="D2">
-        <v>0.3334014035659051</v>
+        <v>78.04088744579775</v>
       </c>
       <c r="E2">
-        <v>1.321757093466012</v>
+        <v>95.86523707217337</v>
       </c>
       <c r="F2">
-        <v>0.3334147117679516</v>
+        <v>90.41181999776764</v>
       </c>
       <c r="G2">
-        <v>2.331431338992008</v>
+        <v>115.9555004570033</v>
       </c>
       <c r="H2">
-        <v>0.3333587244494343</v>
+        <v>142.2969760288376</v>
       </c>
       <c r="I2">
-        <v>0.3333494234546175</v>
+        <v>46.5026375592343</v>
       </c>
       <c r="J2">
-        <v>0.3333501313923026</v>
+        <v>71.90581210894175</v>
       </c>
       <c r="K2">
-        <v>1.282689917036742</v>
+        <v>48.34213067419766</v>
       </c>
       <c r="L2">
-        <v>0.3333581203465423</v>
+        <v>92.91624840209317</v>
       </c>
       <c r="M2">
-        <v>0.3333501313923026</v>
+        <v>48.69440653849597</v>
       </c>
       <c r="N2">
-        <v>2.327220632285714</v>
+        <v>68.32004092865755</v>
       </c>
       <c r="O2">
-        <v>5.333172527196018</v>
+        <v>51.21806706025263</v>
       </c>
       <c r="P2">
-        <v>0.333387231854827</v>
+        <v>93.46402421582593</v>
       </c>
       <c r="Q2">
-        <v>3.333203499905409</v>
+        <v>113.3154868292145</v>
       </c>
       <c r="R2">
-        <v>2.333200462329263</v>
+        <v>61.44273137304</v>
       </c>
       <c r="S2">
-        <v>3.333203499905409</v>
+        <v>0.3814623030135041</v>
       </c>
       <c r="T2">
-        <v>0.3333581203465423</v>
+        <v>68.26360030424836</v>
       </c>
       <c r="U2">
-        <v>0.3334666859328216</v>
+        <v>55.22460232846583</v>
       </c>
       <c r="V2">
-        <v>0.3334392748410559</v>
+        <v>27.19773688776889</v>
       </c>
       <c r="W2">
-        <v>6.333229939399771</v>
+        <v>64.91098050520736</v>
       </c>
       <c r="X2">
-        <v>0.3333501313923026</v>
+        <v>62.89938779034337</v>
       </c>
       <c r="Y2">
-        <v>0.3333573449005852</v>
+        <v>27.32032686617572</v>
       </c>
       <c r="Z2">
-        <v>0.3333875064944715</v>
+        <v>41.91629838550202</v>
       </c>
       <c r="AA2">
-        <v>4.855687467448607</v>
+        <v>112.6433181097871</v>
       </c>
       <c r="AB2">
-        <v>1.333903817057627</v>
+        <v>61.22007306684136</v>
       </c>
       <c r="AC2">
-        <v>0.3333838131710588</v>
+        <v>58.04276653771004</v>
       </c>
       <c r="AD2">
-        <v>4.748190869389268</v>
+        <v>40.52775297068964</v>
       </c>
       <c r="AE2">
-        <v>0.3333557605424013</v>
+        <v>112.7758888807151</v>
       </c>
       <c r="AF2">
-        <v>0.3333565694702423</v>
+        <v>97.86871706929055</v>
       </c>
       <c r="AG2">
-        <v>7.33323032604174</v>
+        <v>133.2955287693092</v>
       </c>
       <c r="AH2">
-        <v>0.3333582777527488</v>
+        <v>42.2907977787683</v>
       </c>
       <c r="AI2">
-        <v>0.3333587244494343</v>
+        <v>141.9783702350255</v>
       </c>
       <c r="AJ2">
-        <v>0.333357257409639</v>
+        <v>129.2817871497085</v>
       </c>
       <c r="AK2">
-        <v>7.304443817549976</v>
+        <v>29.20305302397925</v>
       </c>
       <c r="AL2">
-        <v>1.334165436480867</v>
+        <v>75.89746222397035</v>
       </c>
       <c r="AM2">
-        <v>0.360302508898673</v>
+        <v>32.31271289084437</v>
       </c>
       <c r="AN2">
-        <v>8.042286900487968</v>
+        <v>40.83948413226292</v>
       </c>
       <c r="AO2">
-        <v>0.3333497476292318</v>
+        <v>201.0918840195128</v>
       </c>
       <c r="AP2">
-        <v>0.3333728304051125</v>
+        <v>30.50416289126592</v>
       </c>
       <c r="AQ2">
-        <v>0.3333551242970944</v>
+        <v>46.61273548039348</v>
       </c>
       <c r="AR2">
-        <v>3.2754742013604</v>
+        <v>107.6078242831999</v>
       </c>
       <c r="AS2">
-        <v>0.3333581203465423</v>
+        <v>38.71725046758539</v>
       </c>
       <c r="AT2">
-        <v>5.818574722407322</v>
+        <v>36.2861750039925</v>
       </c>
       <c r="AU2">
-        <v>4.171261483008466</v>
+        <v>70.50229329963598</v>
       </c>
       <c r="AV2">
-        <v>0.3333581203465423</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="AW2">
-        <v>0.3334214290308112</v>
+        <v>68.46727774161567</v>
       </c>
       <c r="AX2">
-        <v>2.320284384835801</v>
+        <v>32.30330379964266</v>
       </c>
       <c r="AY2">
-        <v>5.334196577059887</v>
+        <v>83.27569264761637</v>
       </c>
       <c r="AZ2">
-        <v>0.3334171733651251</v>
+        <v>30.58749078013203</v>
       </c>
       <c r="BA2">
-        <v>2.332326778732087</v>
+        <v>132.2567493681372</v>
       </c>
       <c r="BB2">
-        <v>0.3333733391497979</v>
+        <v>133.0512764654229</v>
       </c>
       <c r="BC2">
-        <v>0.3334262872397594</v>
+        <v>22.31544691327467</v>
       </c>
       <c r="BD2">
-        <v>0.3333589741130381</v>
+        <v>34.3676496239581</v>
       </c>
       <c r="BE2">
-        <v>2.333200462329263</v>
+        <v>251.5109646953112</v>
       </c>
       <c r="BF2">
-        <v>0.3333565694702423</v>
+        <v>25.29701022754592</v>
       </c>
       <c r="BG2">
-        <v>0.3334176735418828</v>
+        <v>0.4042771396606423</v>
       </c>
       <c r="BH2">
-        <v>8.333194865424979</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="BI2">
-        <v>0.3334666859328216</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="BJ2">
-        <v>1.317292632088324</v>
+        <v>222.6491437503598</v>
       </c>
       <c r="BK2">
-        <v>0.3333497476292318</v>
+        <v>55.5673543123402</v>
       </c>
       <c r="BL2">
-        <v>1.328441102187852</v>
+        <v>101.2930450281068</v>
       </c>
       <c r="BM2">
-        <v>5.333229402233985</v>
+        <v>42.78595817678892</v>
       </c>
       <c r="BN2">
-        <v>0.3407909193255019</v>
+        <v>38.02253266674044</v>
       </c>
       <c r="BO2">
-        <v>0.3333953510781715</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="BP2">
-        <v>10.27959484984214</v>
+        <v>51.5040203002744</v>
       </c>
       <c r="BQ2">
-        <v>0.3333565694702423</v>
+        <v>13.16362673836095</v>
       </c>
       <c r="BR2">
-        <v>6.333232578594589</v>
+        <v>157.697330846965</v>
       </c>
       <c r="BS2">
-        <v>0.3333587783013182</v>
+        <v>145.8240747934487</v>
       </c>
       <c r="BT2">
-        <v>0.3333557605424013</v>
+        <v>184.5605738035845</v>
       </c>
       <c r="BU2">
-        <v>0.3333876744618979</v>
+        <v>124.2881742254487</v>
       </c>
       <c r="BV2">
-        <v>0.3333581203465423</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="BW2">
-        <v>0.3334262872397594</v>
+        <v>108.103046870538</v>
       </c>
       <c r="BX2">
-        <v>4.344478579578684</v>
+        <v>38.66959952717608</v>
       </c>
       <c r="BY2">
-        <v>0.3334666859328216</v>
+        <v>22.99205548216294</v>
       </c>
       <c r="BZ2">
-        <v>1.322953630913941</v>
+        <v>63.27232305069175</v>
       </c>
       <c r="CA2">
-        <v>0.3334310046176285</v>
+        <v>48.16033040309865</v>
       </c>
       <c r="CB2">
-        <v>0.3333597252727027</v>
+        <v>35.25775223718179</v>
       </c>
       <c r="CC2">
-        <v>0.4356517984754091</v>
+        <v>68.83997261808213</v>
       </c>
       <c r="CD2">
-        <v>0.336765699420229</v>
+        <v>41.56193186145074</v>
       </c>
       <c r="CE2">
-        <v>2.327755286269461</v>
+        <v>87.17820418385365</v>
       </c>
       <c r="CF2">
-        <v>14.32517317495311</v>
+        <v>55.44860349573653</v>
       </c>
       <c r="CG2">
-        <v>0.3333581203465423</v>
+        <v>143.0312472920357</v>
       </c>
       <c r="CH2">
-        <v>0.3333560385798905</v>
+        <v>143.5326984607731</v>
       </c>
       <c r="CI2">
-        <v>0.333356798095826</v>
+        <v>23.04692627964664</v>
       </c>
       <c r="CJ2">
-        <v>1.700259957806692</v>
+        <v>55.27320945346286</v>
       </c>
       <c r="CK2">
-        <v>3.332072719934998</v>
+        <v>323.2683676827125</v>
       </c>
       <c r="CL2">
-        <v>0.3333812370865242</v>
+        <v>121.6364624534736</v>
       </c>
       <c r="CM2">
-        <v>0.3333581203465423</v>
+        <v>86.69570927461886</v>
       </c>
       <c r="CN2">
-        <v>0.333400525322612</v>
+        <v>28.9374596812654</v>
       </c>
       <c r="CO2">
-        <v>0.3333573449005852</v>
+        <v>0.3847725700422897</v>
       </c>
       <c r="CP2">
-        <v>0.3333575540101671</v>
+        <v>71.30515818025535</v>
       </c>
       <c r="CQ2">
-        <v>0.3334650509198751</v>
+        <v>217.8277106308519</v>
       </c>
       <c r="CR2">
-        <v>15.33322356654693</v>
+        <v>86.29749291320844</v>
       </c>
       <c r="CS2">
-        <v>0.3333509464123861</v>
+        <v>84.91670710075532</v>
       </c>
       <c r="CT2">
-        <v>15.33259895359699</v>
+        <v>34.41080610121956</v>
       </c>
       <c r="CU2">
-        <v>0.3333736137309674</v>
+        <v>51.97146701826385</v>
       </c>
       <c r="CV2">
-        <v>0.3333587244494343</v>
+        <v>29.8279714119961</v>
       </c>
       <c r="CW2">
-        <v>0.3333565694702423</v>
+        <v>89.79417116144545</v>
       </c>
       <c r="CX2">
-        <v>0.339962650643501</v>
+        <v>55.75434204088472</v>
       </c>
       <c r="CY2">
-        <v>1.332375323905392</v>
+        <v>40.13903257322401</v>
       </c>
       <c r="CZ2">
-        <v>12.3122379951372</v>
+        <v>68.54456741312673</v>
       </c>
       <c r="DA2">
-        <v>0.3333581203465423</v>
+        <v>30.11806646554257</v>
       </c>
       <c r="DB2">
-        <v>0.3333581203465423</v>
+        <v>123.2085306901288</v>
       </c>
       <c r="DC2">
-        <v>0.4364876765781906</v>
+        <v>52.95600196873691</v>
       </c>
       <c r="DD2">
-        <v>16.33293511044379</v>
+        <v>46.29884704133946</v>
       </c>
       <c r="DE2">
-        <v>0.3333587244494343</v>
+        <v>75.53488440819594</v>
       </c>
       <c r="DF2">
-        <v>0.3333581203465423</v>
+        <v>272.0075846724298</v>
       </c>
       <c r="DG2">
-        <v>0.3333566702180785</v>
+        <v>73.30954891011505</v>
       </c>
       <c r="DH2">
-        <v>0.3334222932081366</v>
+        <v>57.25356050231489</v>
       </c>
       <c r="DI2">
-        <v>0.3333587244494343</v>
+        <v>117.2652363152777</v>
       </c>
       <c r="DJ2">
-        <v>1.326155685315952</v>
+        <v>48.798276130417</v>
       </c>
       <c r="DK2">
-        <v>5.332832294914847</v>
+        <v>33.73824056383373</v>
       </c>
       <c r="DL2">
-        <v>4.331871280739127</v>
+        <v>41.9515290745742</v>
       </c>
       <c r="DM2">
-        <v>0.3333554751422324</v>
+        <v>245.4302604550201</v>
       </c>
       <c r="DN2">
-        <v>0.3333565694702423</v>
+        <v>142.0852704645787</v>
       </c>
       <c r="DO2">
-        <v>0.3333565694702423</v>
+        <v>170.1574806085559</v>
       </c>
       <c r="DP2">
-        <v>3.333203499905409</v>
+        <v>8.740313619952001</v>
       </c>
       <c r="DQ2">
-        <v>0.3333553923772271</v>
+        <v>28.31027986630903</v>
       </c>
       <c r="DR2">
-        <v>0.3333555901277984</v>
+        <v>38.70471892823521</v>
       </c>
       <c r="DS2">
-        <v>0.3333553299742811</v>
+        <v>70.52781991615176</v>
       </c>
       <c r="DT2">
-        <v>0.3333565967041032</v>
+        <v>33.92732650341879</v>
       </c>
       <c r="DU2">
-        <v>0.3333757005032605</v>
+        <v>135.8936587107253</v>
       </c>
       <c r="DV2">
-        <v>0.3333587244494343</v>
+        <v>79.4108026977468</v>
       </c>
       <c r="DW2">
-        <v>0.3333676342721985</v>
+        <v>40.64585683042409</v>
       </c>
       <c r="DX2">
-        <v>0.3333560385798905</v>
+        <v>51.17462333827675</v>
       </c>
       <c r="DY2">
-        <v>0.3333550650557126</v>
+        <v>55.26573510416542</v>
       </c>
       <c r="DZ2">
-        <v>0.3334000584091811</v>
+        <v>74.13729771878187</v>
       </c>
       <c r="EA2">
-        <v>11.91988659032791</v>
+        <v>30.954838353271</v>
       </c>
       <c r="EB2">
-        <v>0.3333501313923026</v>
+        <v>77.22271248792421</v>
       </c>
       <c r="EC2">
-        <v>0.3359305159416532</v>
+        <v>57.08707078134773</v>
       </c>
       <c r="ED2">
-        <v>2.971681424967237</v>
+        <v>161.4822600032553</v>
       </c>
       <c r="EE2">
-        <v>0.3333560385798905</v>
+        <v>19.93897398035081</v>
       </c>
       <c r="EF2">
-        <v>1.331663037513052</v>
+        <v>82.49105553048723</v>
       </c>
       <c r="EG2">
-        <v>0.3333511647535818</v>
+        <v>142.6709282920997</v>
       </c>
       <c r="EH2">
-        <v>5.310915800734216</v>
+        <v>88.80267150715875</v>
       </c>
       <c r="EI2">
-        <v>0.3333587244494343</v>
+        <v>76.04209984317325</v>
       </c>
       <c r="EJ2">
-        <v>0.3333804612041599</v>
+        <v>16.94297381639845</v>
       </c>
       <c r="EK2">
-        <v>0.3333565694702423</v>
+        <v>57.26674484533054</v>
       </c>
       <c r="EL2">
-        <v>7.133149671271146</v>
+        <v>37.26441739096133</v>
       </c>
       <c r="EM2">
-        <v>6.332478345705093</v>
+        <v>127.6899060911035</v>
       </c>
       <c r="EN2">
-        <v>0.3333565694702423</v>
+        <v>36.57569622867366</v>
       </c>
       <c r="EO2">
-        <v>0.3333565694702423</v>
+        <v>64.70304754694358</v>
       </c>
       <c r="EP2">
-        <v>0.3333587244494343</v>
+        <v>85.79329650363636</v>
       </c>
       <c r="EQ2">
-        <v>8.332247806601641</v>
+        <v>95.53723459237682</v>
       </c>
       <c r="ER2">
-        <v>0.3334666859328216</v>
+        <v>192.5417169350061</v>
       </c>
       <c r="ES2">
-        <v>0.3334014035659051</v>
+        <v>45.30735736004245</v>
       </c>
       <c r="ET2">
-        <v>1.331663650543738</v>
+        <v>73.25193135543719</v>
       </c>
       <c r="EU2">
-        <v>4.33431842223645</v>
+        <v>40.15144097037069</v>
       </c>
       <c r="EV2">
-        <v>0.3333581203465423</v>
+        <v>47.40041579560013</v>
       </c>
       <c r="EW2">
-        <v>0.3334096559589429</v>
+        <v>34.51730586057072</v>
       </c>
       <c r="EX2">
-        <v>0.3333594020753554</v>
+        <v>76.6169590292933</v>
       </c>
       <c r="EY2">
-        <v>0.3333636838037783</v>
+        <v>174.8354769550995</v>
       </c>
       <c r="EZ2">
-        <v>0.3333565694702423</v>
+        <v>22.64401425552566</v>
       </c>
       <c r="FA2">
-        <v>0.3334269147932665</v>
+        <v>73.56423589747973</v>
       </c>
       <c r="FB2">
-        <v>0.3897155702763448</v>
+        <v>102.8468149625186</v>
       </c>
       <c r="FC2">
-        <v>10.31517081827978</v>
+        <v>42.25543933248031</v>
       </c>
       <c r="FD2">
-        <v>0.3333581203465423</v>
+        <v>54.82845114768299</v>
       </c>
       <c r="FE2">
-        <v>0.3333869572158094</v>
+        <v>70.30284079551369</v>
       </c>
       <c r="FF2">
-        <v>0.3334027421339011</v>
+        <v>62.34717461765653</v>
       </c>
       <c r="FG2">
-        <v>8.332262312065712</v>
+        <v>53.30876588705753</v>
       </c>
       <c r="FH2">
-        <v>5.232269807297214</v>
+        <v>116.3596564829413</v>
       </c>
       <c r="FI2">
-        <v>5.333172527196018</v>
+        <v>40.78106062134015</v>
       </c>
       <c r="FJ2">
-        <v>0.3333501313923026</v>
+        <v>20.54467801128121</v>
       </c>
       <c r="FK2">
-        <v>5.303939842207119</v>
+        <v>34.15540404173895</v>
       </c>
       <c r="FL2">
-        <v>6.290073135011937</v>
+        <v>54.78538761602425</v>
       </c>
       <c r="FM2">
-        <v>0.333359203981903</v>
+        <v>155.8579101006887</v>
       </c>
       <c r="FN2">
-        <v>0.3333557605424013</v>
+        <v>15.08763373862466</v>
       </c>
       <c r="FO2">
-        <v>2.329221644932217</v>
+        <v>82.12162847779801</v>
       </c>
       <c r="FP2">
-        <v>0.3334043659692427</v>
+        <v>205.8811342180594</v>
       </c>
       <c r="FQ2">
-        <v>2.19638864995234</v>
+        <v>72.20725375240988</v>
       </c>
       <c r="FR2">
-        <v>0.3334666859328216</v>
+        <v>52.29969202864464</v>
       </c>
       <c r="FS2">
-        <v>0.3333581203465423</v>
+        <v>60.49228013954265</v>
       </c>
       <c r="FT2">
-        <v>0.3401502992501216</v>
+        <v>124.3346856200853</v>
       </c>
       <c r="FU2">
-        <v>7.343569434576771</v>
+        <v>62.78973651761019</v>
       </c>
       <c r="FV2">
-        <v>18.33321160806991</v>
+        <v>32.28774283966222</v>
       </c>
       <c r="FW2">
-        <v>0.3333804612041599</v>
+        <v>19.30377712740271</v>
       </c>
       <c r="FX2">
-        <v>3.333098070111027</v>
+        <v>62.20896164938273</v>
       </c>
       <c r="FY2">
-        <v>0.3333587244494343</v>
+        <v>71.19985719393559</v>
       </c>
       <c r="FZ2">
-        <v>0.3333587244494343</v>
+        <v>52.94713478915705</v>
       </c>
       <c r="GA2">
-        <v>8.330822341283392</v>
+        <v>77.05979826223121</v>
       </c>
       <c r="GB2">
-        <v>0.3333804612041599</v>
+        <v>80.99031736313376</v>
       </c>
       <c r="GC2">
-        <v>3.309087094856765</v>
+        <v>105.5572735274012</v>
       </c>
       <c r="GD2">
-        <v>0.336765699420229</v>
+        <v>51.01921188067673</v>
       </c>
       <c r="GE2">
-        <v>9.332381849374203</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="GF2">
-        <v>9.330630531935778</v>
+        <v>48.84233465913641</v>
       </c>
       <c r="GG2">
-        <v>0.3333584013352602</v>
+        <v>111.5559848195038</v>
       </c>
       <c r="GH2">
-        <v>13.12366656492993</v>
+        <v>41.8939955606152</v>
       </c>
       <c r="GI2">
-        <v>0.3334043659692427</v>
+        <v>23.2967745061223</v>
       </c>
       <c r="GJ2">
-        <v>9.295568121721493</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="GK2">
-        <v>42.32687535817934</v>
+        <v>0.3378596976464017</v>
       </c>
       <c r="GL2">
-        <v>27.98253386600314</v>
+        <v>36.93718525034056</v>
       </c>
       <c r="GM2">
-        <v>0.4612408441630422</v>
+        <v>29.22301061883967</v>
       </c>
       <c r="GN2">
-        <v>0.3333582777527488</v>
+        <v>112.693286648307</v>
       </c>
       <c r="GO2">
-        <v>0.3334005695685548</v>
+        <v>165.8863030247987</v>
       </c>
       <c r="GP2">
-        <v>0.3333584013352602</v>
+        <v>122.2483124105337</v>
       </c>
       <c r="GQ2">
-        <v>0.3333669150555472</v>
+        <v>86.22868235917885</v>
       </c>
       <c r="GR2">
-        <v>2.727209309197803</v>
+        <v>66.90533155179162</v>
       </c>
       <c r="GS2">
-        <v>5.332331449470123</v>
+        <v>79.70266507894539</v>
+      </c>
+      <c r="GT2">
+        <v>96.34793743785575</v>
+      </c>
+      <c r="GU2">
+        <v>133.7769682812156</v>
+      </c>
+      <c r="GV2">
+        <v>63.94052877043725</v>
+      </c>
+      <c r="GW2">
+        <v>111.2696419105317</v>
+      </c>
+      <c r="GX2">
+        <v>235.1428437025303</v>
+      </c>
+      <c r="GY2">
+        <v>132.3679479657467</v>
+      </c>
+      <c r="GZ2">
+        <v>128.7420736090574</v>
+      </c>
+      <c r="HA2">
+        <v>155.2819358425565</v>
+      </c>
+      <c r="HB2">
+        <v>70.19824815187255</v>
+      </c>
+      <c r="HC2">
+        <v>122.9938959783013</v>
+      </c>
+      <c r="HD2">
+        <v>113.2764787904947</v>
+      </c>
+      <c r="HE2">
+        <v>37.21195290075956</v>
+      </c>
+      <c r="HF2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="HG2">
+        <v>69.2406191270356</v>
+      </c>
+      <c r="HH2">
+        <v>65.3886441301711</v>
+      </c>
+      <c r="HI2">
+        <v>58.11005417168131</v>
+      </c>
+      <c r="HJ2">
+        <v>70.80177000873735</v>
+      </c>
+      <c r="HK2">
+        <v>76.14234590530572</v>
+      </c>
+      <c r="HL2">
+        <v>130.8922743812365</v>
+      </c>
+      <c r="HM2">
+        <v>88.1909245400834</v>
+      </c>
+      <c r="HN2">
+        <v>64.48102854348504</v>
+      </c>
+      <c r="HO2">
+        <v>32.13707604389727</v>
+      </c>
+      <c r="HP2">
+        <v>88.21991462826384</v>
+      </c>
+      <c r="HQ2">
+        <v>80.28921740675128</v>
+      </c>
+      <c r="HR2">
+        <v>109.0355167119322</v>
+      </c>
+      <c r="HS2">
+        <v>119.8252634761335</v>
+      </c>
+      <c r="HT2">
+        <v>19.04590710823129</v>
+      </c>
+      <c r="HU2">
+        <v>55.41318128177658</v>
+      </c>
+      <c r="HV2">
+        <v>94.77285765662154</v>
+      </c>
+      <c r="HW2">
+        <v>51.06359029042218</v>
+      </c>
+      <c r="HX2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="HY2">
+        <v>41.27118110301249</v>
+      </c>
+      <c r="HZ2">
+        <v>65.74973269278728</v>
+      </c>
+      <c r="IA2">
+        <v>127.0198860763596</v>
+      </c>
+      <c r="IB2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="IC2">
+        <v>52.07615156543944</v>
+      </c>
+      <c r="ID2">
+        <v>75.28735998487365</v>
+      </c>
+      <c r="IE2">
+        <v>44.3958405439451</v>
+      </c>
+      <c r="IF2">
+        <v>143.2845729626995</v>
+      </c>
+      <c r="IG2">
+        <v>126.3004577220988</v>
+      </c>
+      <c r="IH2">
+        <v>187.484005225349</v>
+      </c>
+      <c r="II2">
+        <v>0.3830996819925004</v>
+      </c>
+      <c r="IJ2">
+        <v>70.4790474258559</v>
+      </c>
+      <c r="IK2">
+        <v>41.66208196123867</v>
+      </c>
+      <c r="IL2">
+        <v>25.29226004623264</v>
+      </c>
+      <c r="IM2">
+        <v>85.38750518787981</v>
+      </c>
+      <c r="IN2">
+        <v>75.7350291397654</v>
+      </c>
+      <c r="IO2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="IP2">
+        <v>39.52543257744412</v>
+      </c>
+      <c r="IQ2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="IR2">
+        <v>13.16362673848339</v>
+      </c>
+      <c r="IS2">
+        <v>120.3372892389028</v>
+      </c>
+      <c r="IT2">
+        <v>64.73490983643448</v>
+      </c>
+      <c r="IU2">
+        <v>95.23805653566818</v>
+      </c>
+      <c r="IV2">
+        <v>48.69965205099716</v>
+      </c>
+      <c r="IW2">
+        <v>186.5518791073688</v>
+      </c>
+      <c r="IX2">
+        <v>164.8076321531966</v>
+      </c>
+      <c r="IY2">
+        <v>89.59791416376463</v>
+      </c>
+      <c r="IZ2">
+        <v>100.676615066313</v>
+      </c>
+      <c r="JA2">
+        <v>128.876288100189</v>
+      </c>
+      <c r="JB2">
+        <v>82.84546187897347</v>
+      </c>
+      <c r="JC2">
+        <v>147.3023266954276</v>
+      </c>
+      <c r="JD2">
+        <v>24.30390591484829</v>
+      </c>
+      <c r="JE2">
+        <v>31.31429145249527</v>
+      </c>
+      <c r="JF2">
+        <v>39.28189043883329</v>
+      </c>
+      <c r="JG2">
+        <v>32.30851789219571</v>
+      </c>
+      <c r="JH2">
+        <v>0.3689452019044152</v>
+      </c>
+      <c r="JI2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="JJ2">
+        <v>41.68738147285065</v>
+      </c>
+      <c r="JK2">
+        <v>129.4527390893188</v>
+      </c>
+      <c r="JL2">
+        <v>56.2479715973172</v>
+      </c>
+      <c r="JM2">
+        <v>114.4425477405156</v>
+      </c>
+      <c r="JN2">
+        <v>167.739006492587</v>
+      </c>
+      <c r="JO2">
+        <v>37.17553415279636</v>
+      </c>
+      <c r="JP2">
+        <v>114.2444247906097</v>
+      </c>
+      <c r="JQ2">
+        <v>120.3862190159004</v>
+      </c>
+      <c r="JR2">
+        <v>77.70155193573663</v>
+      </c>
+      <c r="JS2">
+        <v>194.2772675401886</v>
+      </c>
+      <c r="JT2">
+        <v>97.18646231284644</v>
+      </c>
+      <c r="JU2">
+        <v>41.51210029587129</v>
+      </c>
+      <c r="JV2">
+        <v>60.56960068296303</v>
+      </c>
+      <c r="JW2">
+        <v>73.74177351198061</v>
+      </c>
+      <c r="JX2">
+        <v>84.74851492645038</v>
+      </c>
+      <c r="JY2">
+        <v>102.5861195042177</v>
+      </c>
+      <c r="JZ2">
+        <v>266.1424662527789</v>
+      </c>
+      <c r="KA2">
+        <v>62.20996569011436</v>
+      </c>
+      <c r="KB2">
+        <v>98.26343630525406</v>
+      </c>
+      <c r="KC2">
+        <v>153.8674421877058</v>
+      </c>
+      <c r="KD2">
+        <v>33.55832204887925</v>
+      </c>
+      <c r="KE2">
+        <v>62.2650260162644</v>
+      </c>
+      <c r="KF2">
+        <v>59.95041867198865</v>
+      </c>
+      <c r="KG2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="KH2">
+        <v>105.3738090089576</v>
+      </c>
+      <c r="KI2">
+        <v>50.01482653466768</v>
+      </c>
+      <c r="KJ2">
+        <v>14.87679535081432</v>
+      </c>
+      <c r="KK2">
+        <v>88.35430116652832</v>
+      </c>
+      <c r="KL2">
+        <v>95.92121707449158</v>
+      </c>
+      <c r="KM2">
+        <v>100.2378980233145</v>
+      </c>
+      <c r="KN2">
+        <v>58.95907505979584</v>
+      </c>
+      <c r="KO2">
+        <v>137.8517040728166</v>
+      </c>
+      <c r="KP2">
+        <v>24.31050909971871</v>
+      </c>
+      <c r="KQ2">
+        <v>203.3477110467696</v>
+      </c>
+      <c r="KR2">
+        <v>69.27349050625614</v>
+      </c>
+      <c r="KS2">
+        <v>99.50420369517215</v>
+      </c>
+      <c r="KT2">
+        <v>53.32243754635191</v>
+      </c>
+      <c r="KU2">
+        <v>79.7141108128594</v>
+      </c>
+      <c r="KV2">
+        <v>36.08831120534332</v>
+      </c>
+      <c r="KW2">
+        <v>65.25088561981079</v>
+      </c>
+      <c r="KX2">
+        <v>44.94281313244822</v>
+      </c>
+      <c r="KY2">
+        <v>123.2667544144004</v>
+      </c>
+      <c r="KZ2">
+        <v>43.46132867235882</v>
+      </c>
+      <c r="LA2">
+        <v>74.78482621324105</v>
+      </c>
+      <c r="LB2">
+        <v>48.77195574505299</v>
+      </c>
+      <c r="LC2">
+        <v>40.28405452361648</v>
+      </c>
+      <c r="LD2">
+        <v>142.1392263904024</v>
+      </c>
+      <c r="LE2">
+        <v>132.4200471445629</v>
+      </c>
+      <c r="LF2">
+        <v>109.2841189487524</v>
+      </c>
+      <c r="LG2">
+        <v>30.33949128138273</v>
+      </c>
+      <c r="LH2">
+        <v>152.7430446361293</v>
+      </c>
+      <c r="LI2">
+        <v>72.1582567815327</v>
+      </c>
+      <c r="LJ2">
+        <v>39.50516900735745</v>
+      </c>
+      <c r="LK2">
+        <v>49.67246960500553</v>
+      </c>
+      <c r="LL2">
+        <v>176.4347509460919</v>
+      </c>
+      <c r="LM2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="LN2">
+        <v>45.92955757674062</v>
+      </c>
+      <c r="LO2">
+        <v>65.90965109876126</v>
+      </c>
+      <c r="LP2">
+        <v>40.26403572410693</v>
+      </c>
+      <c r="LQ2">
+        <v>34.01127242721569</v>
+      </c>
+      <c r="LR2">
+        <v>103.5957009840678</v>
+      </c>
+      <c r="LS2">
+        <v>48.76458057824495</v>
+      </c>
+      <c r="LT2">
+        <v>16.32862510560709</v>
+      </c>
+      <c r="LU2">
+        <v>48.30541058779757</v>
+      </c>
+      <c r="LV2">
+        <v>78.90605337995373</v>
+      </c>
+      <c r="LW2">
+        <v>69.28206907778866</v>
+      </c>
+      <c r="LX2">
+        <v>118.5226449948131</v>
+      </c>
+      <c r="LY2">
+        <v>112.2374691886414</v>
+      </c>
+      <c r="LZ2">
+        <v>48.27433763429583</v>
+      </c>
+      <c r="MA2">
+        <v>153.2502543016873</v>
+      </c>
+      <c r="MB2">
+        <v>61.67738650504729</v>
+      </c>
+      <c r="MC2">
+        <v>47.07379561614579</v>
+      </c>
+      <c r="MD2">
+        <v>169.5406907795669</v>
+      </c>
+      <c r="ME2">
+        <v>78.49403147432326</v>
+      </c>
+      <c r="MF2">
+        <v>46.18029391967105</v>
+      </c>
+      <c r="MG2">
+        <v>107.0494527428734</v>
+      </c>
+      <c r="MH2">
+        <v>46.66048500131897</v>
+      </c>
+      <c r="MI2">
+        <v>72.16912589615112</v>
+      </c>
+      <c r="MJ2">
+        <v>77.20880807753085</v>
+      </c>
+      <c r="MK2">
+        <v>88.15963515575707</v>
+      </c>
+      <c r="ML2">
+        <v>230.6103633946347</v>
+      </c>
+      <c r="MM2">
+        <v>124.2235025830156</v>
+      </c>
+      <c r="MN2">
+        <v>105.9438038778448</v>
+      </c>
+      <c r="MO2">
+        <v>40.55237948613889</v>
+      </c>
+      <c r="MP2">
+        <v>73.67841526906597</v>
+      </c>
+      <c r="MQ2">
+        <v>56.19094269206645</v>
+      </c>
+      <c r="MR2">
+        <v>102.0726374567265</v>
+      </c>
+      <c r="MS2">
+        <v>33.27471881995724</v>
+      </c>
+      <c r="MT2">
+        <v>12.14457703846845</v>
+      </c>
+      <c r="MU2">
+        <v>31.30417460005263</v>
+      </c>
+      <c r="MV2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="MW2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="MX2">
+        <v>13.09521690403286</v>
+      </c>
+      <c r="MY2">
+        <v>22.2128987672966</v>
+      </c>
+      <c r="MZ2">
+        <v>113.4161204779785</v>
+      </c>
+      <c r="NA2">
+        <v>134.219621065519</v>
+      </c>
+      <c r="NB2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="NC2">
+        <v>178.2663164251185</v>
+      </c>
+      <c r="ND2">
+        <v>84.10587980256041</v>
+      </c>
+      <c r="NE2">
+        <v>72.10113663745969</v>
+      </c>
+      <c r="NF2">
+        <v>53.11365634883835</v>
+      </c>
+      <c r="NG2">
+        <v>23.29017523331994</v>
+      </c>
+      <c r="NH2">
+        <v>82.52250528718132</v>
+      </c>
+      <c r="NI2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="NJ2">
+        <v>72.55982888931108</v>
+      </c>
+      <c r="NK2">
+        <v>42.30140635987141</v>
+      </c>
+      <c r="NL2">
+        <v>22.09974411185758</v>
+      </c>
+      <c r="NM2">
+        <v>33.61670415106173</v>
+      </c>
+      <c r="NN2">
+        <v>84.25181970709242</v>
+      </c>
+      <c r="NO2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="NP2">
+        <v>75.21487512390064</v>
+      </c>
+      <c r="NQ2">
+        <v>28.31770061363653</v>
+      </c>
+      <c r="NR2">
+        <v>0.3378596976464017</v>
+      </c>
+      <c r="NS2">
+        <v>113.7269884019768</v>
+      </c>
+      <c r="NT2">
+        <v>139.2893641053514</v>
+      </c>
+      <c r="NU2">
+        <v>114.2742179125649</v>
+      </c>
+      <c r="NV2">
+        <v>50.59644840747889</v>
+      </c>
+      <c r="NW2">
+        <v>34.61276358617572</v>
+      </c>
+      <c r="NX2">
+        <v>37.57321042114069</v>
+      </c>
+      <c r="NY2">
+        <v>26.13541117545447</v>
+      </c>
+      <c r="NZ2">
+        <v>96.4100673053527</v>
+      </c>
+      <c r="OA2">
+        <v>0.344363535645486</v>
+      </c>
+      <c r="OB2">
+        <v>66.74141619730803</v>
+      </c>
+      <c r="OC2">
+        <v>25.28721085286118</v>
+      </c>
+      <c r="OD2">
+        <v>45.15491706439757</v>
+      </c>
+      <c r="OE2">
+        <v>38.04284065175233</v>
+      </c>
+      <c r="OF2">
+        <v>77.32309781387289</v>
+      </c>
+      <c r="OG2">
+        <v>0.3513122251133153</v>
+      </c>
+      <c r="OH2">
+        <v>56.29901560479308</v>
+      </c>
+      <c r="OI2">
+        <v>192.2747222065094</v>
+      </c>
+      <c r="OJ2">
+        <v>17.10935090384242</v>
+      </c>
+      <c r="OK2">
+        <v>80.29475667307831</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.3362742782458048</v>
+        <v>0.6516686219464074</v>
       </c>
       <c r="C3">
-        <v>0.3333769327009198</v>
+        <v>10.30141397479291</v>
       </c>
       <c r="D3">
-        <v>0.3334618393977864</v>
+        <v>3.611462546106477</v>
       </c>
       <c r="E3">
-        <v>6.362745755268403</v>
+        <v>5.565276439281638</v>
       </c>
       <c r="F3">
-        <v>5.347101343857686</v>
+        <v>2.007777950559761</v>
       </c>
       <c r="G3">
-        <v>1.335165779302086</v>
+        <v>0.3863400155878982</v>
       </c>
       <c r="H3">
-        <v>4.333285917669098</v>
+        <v>4.963193789382967</v>
       </c>
       <c r="I3">
-        <v>5.333306313971764</v>
+        <v>0.3850050440464707</v>
       </c>
       <c r="J3">
-        <v>2.333305125192461</v>
+        <v>0.4917052214966219</v>
       </c>
       <c r="K3">
-        <v>0.3587537530749499</v>
+        <v>0.4070814069915442</v>
       </c>
       <c r="L3">
-        <v>0.3333739132535092</v>
+        <v>0.3919393328531018</v>
       </c>
       <c r="M3">
-        <v>2.333305125192461</v>
+        <v>0.3603357509046574</v>
       </c>
       <c r="N3">
-        <v>0.3376388695861434</v>
+        <v>4.611818249910857</v>
       </c>
       <c r="O3">
-        <v>0.3334447489144008</v>
+        <v>0.413145046547616</v>
       </c>
       <c r="P3">
-        <v>0.3334385073153282</v>
+        <v>8.084292530177223</v>
       </c>
       <c r="Q3">
-        <v>0.3334244623335723</v>
+        <v>0.3388969638037083</v>
       </c>
       <c r="R3">
-        <v>0.3334265947271844</v>
+        <v>1.702195307767964</v>
       </c>
       <c r="S3">
-        <v>0.3334244623335723</v>
+        <v>236.2200466841271</v>
       </c>
       <c r="T3">
-        <v>0.3333739132535092</v>
+        <v>0.3380340603143375</v>
       </c>
       <c r="U3">
-        <v>0.3335242214784609</v>
+        <v>0.3606917639151848</v>
       </c>
       <c r="V3">
-        <v>1.334416359347874</v>
+        <v>1.438232040350818</v>
       </c>
       <c r="W3">
-        <v>0.3334081519788286</v>
+        <v>0.3780528314422236</v>
       </c>
       <c r="X3">
-        <v>2.333305125192461</v>
+        <v>0.3578743304323725</v>
       </c>
       <c r="Y3">
-        <v>0.333370477889968</v>
+        <v>0.3356453335219728</v>
       </c>
       <c r="Z3">
-        <v>0.3334335201378946</v>
+        <v>0.4311048475183447</v>
       </c>
       <c r="AA3">
-        <v>0.3334831004467356</v>
+        <v>5.053428383130721</v>
       </c>
       <c r="AB3">
-        <v>0.3335369796488166</v>
+        <v>3.398084074974992</v>
       </c>
       <c r="AC3">
-        <v>0.3334227248092713</v>
+        <v>0.3938195546097524</v>
       </c>
       <c r="AD3">
-        <v>4.956199290551675</v>
+        <v>0.387016767721668</v>
       </c>
       <c r="AE3">
-        <v>0.3333658691213922</v>
+        <v>0.4441130381316705</v>
       </c>
       <c r="AF3">
-        <v>0.3333670427800405</v>
+        <v>3.749859768400289</v>
       </c>
       <c r="AG3">
-        <v>0.3334078721583446</v>
+        <v>0.352465624579384</v>
       </c>
       <c r="AH3">
-        <v>0.3333743014865838</v>
+        <v>0.3398959570632719</v>
       </c>
       <c r="AI3">
-        <v>4.333285917669098</v>
+        <v>4.773502077662519</v>
       </c>
       <c r="AJ3">
-        <v>0.3333725002837634</v>
+        <v>0.3637264923539784</v>
       </c>
       <c r="AK3">
-        <v>0.3554802974456382</v>
+        <v>0.3961095653888868</v>
       </c>
       <c r="AL3">
-        <v>3.339340490573669</v>
+        <v>16.53495073663355</v>
       </c>
       <c r="AM3">
-        <v>12.3062597547879</v>
+        <v>0.3432969596544112</v>
       </c>
       <c r="AN3">
-        <v>2.609871622726034</v>
+        <v>8.956172285704806</v>
       </c>
       <c r="AO3">
-        <v>3.333305769612743</v>
+        <v>0.3854096727412124</v>
       </c>
       <c r="AP3">
-        <v>0.3333911302525456</v>
+        <v>1.765157889733645</v>
       </c>
       <c r="AQ3">
-        <v>0.3333649460107544</v>
+        <v>0.3932084348760426</v>
       </c>
       <c r="AR3">
-        <v>5.398301399301924</v>
+        <v>0.4047793950275046</v>
       </c>
       <c r="AS3">
-        <v>0.3333739132535092</v>
+        <v>6.875783922002798</v>
       </c>
       <c r="AT3">
-        <v>0.3463788222917939</v>
+        <v>0.3372444902932479</v>
       </c>
       <c r="AU3">
-        <v>0.3385840661731728</v>
+        <v>9.904168066058917</v>
       </c>
       <c r="AV3">
-        <v>0.3333739132535092</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="AW3">
-        <v>1.335121605828172</v>
+        <v>3.237864163658113</v>
       </c>
       <c r="AX3">
-        <v>8.346343275817981</v>
+        <v>0.3573645693144374</v>
       </c>
       <c r="AY3">
-        <v>0.3334676028775245</v>
+        <v>0.3644772149159088</v>
       </c>
       <c r="AZ3">
-        <v>1.322121116227055</v>
+        <v>4.436006405602873</v>
       </c>
       <c r="BA3">
-        <v>0.3334515028298012</v>
+        <v>6.97149194948418</v>
       </c>
       <c r="BB3">
-        <v>0.3334102021338115</v>
+        <v>0.4211769791453343</v>
       </c>
       <c r="BC3">
-        <v>1.335183988591232</v>
+        <v>0.3339621969386075</v>
       </c>
       <c r="BD3">
-        <v>0.33337569157901</v>
+        <v>0.3423744563280613</v>
       </c>
       <c r="BE3">
-        <v>0.3334265947271844</v>
+        <v>36.05148764694874</v>
       </c>
       <c r="BF3">
-        <v>0.3333670427800405</v>
+        <v>0.3396513425195727</v>
       </c>
       <c r="BG3">
-        <v>0.3334522204558713</v>
+        <v>255.2165497420038</v>
       </c>
       <c r="BH3">
-        <v>0.3334240952272493</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="BI3">
-        <v>0.3335242214784609</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="BJ3">
-        <v>1.336425606229923</v>
+        <v>37.47146893490149</v>
       </c>
       <c r="BK3">
-        <v>3.333305769612743</v>
+        <v>2.149388888139821</v>
       </c>
       <c r="BL3">
-        <v>0.3334385828739173</v>
+        <v>0.3489464137859306</v>
       </c>
       <c r="BM3">
-        <v>0.3334085407368418</v>
+        <v>0.3608611673291322</v>
       </c>
       <c r="BN3">
-        <v>2.351397694528895</v>
+        <v>19.71485879263416</v>
       </c>
       <c r="BO3">
-        <v>0.3334259774126143</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="BP3">
-        <v>0.3403590949872259</v>
+        <v>0.4042504409401851</v>
       </c>
       <c r="BQ3">
-        <v>0.3333670427800405</v>
+        <v>0.3356969905527987</v>
       </c>
       <c r="BR3">
-        <v>0.333406839751496</v>
+        <v>0.4004110644872625</v>
       </c>
       <c r="BS3">
-        <v>0.3333752976064331</v>
+        <v>0.3756941312214372</v>
       </c>
       <c r="BT3">
-        <v>0.3333658691213922</v>
+        <v>0.3849331541923702</v>
       </c>
       <c r="BU3">
-        <v>0.3334111279515783</v>
+        <v>0.3535589202018808</v>
       </c>
       <c r="BV3">
-        <v>0.3333739132535092</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="BW3">
-        <v>1.335183988591232</v>
+        <v>0.3867098816895008</v>
       </c>
       <c r="BX3">
-        <v>0.3336997908691023</v>
+        <v>0.3879258153949337</v>
       </c>
       <c r="BY3">
-        <v>0.3335242214784609</v>
+        <v>0.4041598905126744</v>
       </c>
       <c r="BZ3">
-        <v>3.351069048961864</v>
+        <v>0.3486952358179086</v>
       </c>
       <c r="CA3">
-        <v>0.3334750736378264</v>
+        <v>2.613603556042888</v>
       </c>
       <c r="CB3">
-        <v>0.3333769327009198</v>
+        <v>0.3944915774766434</v>
       </c>
       <c r="CC3">
-        <v>0.3335537626768365</v>
+        <v>1.911165911430288</v>
       </c>
       <c r="CD3">
-        <v>1.337151773333322</v>
+        <v>0.4246882237466291</v>
       </c>
       <c r="CE3">
-        <v>0.3334757451251022</v>
+        <v>0.3909190128311823</v>
       </c>
       <c r="CF3">
-        <v>5.647388135841175</v>
+        <v>0.3842018227081996</v>
       </c>
       <c r="CG3">
-        <v>0.3333739132535092</v>
+        <v>0.3746369019277429</v>
       </c>
       <c r="CH3">
-        <v>0.3333662725199388</v>
+        <v>0.5801618297810203</v>
       </c>
       <c r="CI3">
-        <v>0.3333717482113948</v>
+        <v>0.3414701880494599</v>
       </c>
       <c r="CJ3">
-        <v>0.3335440014742784</v>
+        <v>0.3420704667024202</v>
       </c>
       <c r="CK3">
-        <v>0.333505087517816</v>
+        <v>2.724646668787836</v>
       </c>
       <c r="CL3">
-        <v>0.3334031860370418</v>
+        <v>0.4132121824975352</v>
       </c>
       <c r="CM3">
-        <v>0.3333739132535092</v>
+        <v>2.927417431916767</v>
       </c>
       <c r="CN3">
-        <v>1.334189381314613</v>
+        <v>1.652192330899808</v>
       </c>
       <c r="CO3">
-        <v>0.333370477889968</v>
+        <v>0.3807791234284518</v>
       </c>
       <c r="CP3">
-        <v>0.3333729859346195</v>
+        <v>0.354091065877045</v>
       </c>
       <c r="CQ3">
-        <v>0.3335218796872472</v>
+        <v>54.64618378994333</v>
       </c>
       <c r="CR3">
-        <v>0.3334053934652094</v>
+        <v>0.3577680432411458</v>
       </c>
       <c r="CS3">
-        <v>4.333304384194094</v>
+        <v>0.3854744003530498</v>
       </c>
       <c r="CT3">
-        <v>4.334028830351984</v>
+        <v>0.4493468853475971</v>
       </c>
       <c r="CU3">
-        <v>0.3334052179120031</v>
+        <v>0.3848578727859523</v>
       </c>
       <c r="CV3">
-        <v>4.333285917669098</v>
+        <v>4.356585436771793</v>
       </c>
       <c r="CW3">
-        <v>0.3333670427800405</v>
+        <v>2.073277176668683</v>
       </c>
       <c r="CX3">
-        <v>0.3337177945347632</v>
+        <v>7.108844385386824</v>
       </c>
       <c r="CY3">
-        <v>0.3335222965584678</v>
+        <v>0.3555513864524837</v>
       </c>
       <c r="CZ3">
-        <v>0.3374104122597157</v>
+        <v>0.3967261107690389</v>
       </c>
       <c r="DA3">
-        <v>0.3333739132535092</v>
+        <v>0.4118216386336995</v>
       </c>
       <c r="DB3">
-        <v>0.3333739132535092</v>
+        <v>4.420696913345866</v>
       </c>
       <c r="DC3">
-        <v>0.3335544069806129</v>
+        <v>1.647987586040996</v>
       </c>
       <c r="DD3">
-        <v>0.3334763892846124</v>
+        <v>0.3450052478552909</v>
       </c>
       <c r="DE3">
-        <v>4.333285917669098</v>
+        <v>3.64967588059061</v>
       </c>
       <c r="DF3">
-        <v>0.3333739132535092</v>
+        <v>33.70247915273239</v>
       </c>
       <c r="DG3">
-        <v>0.3333715388274087</v>
+        <v>0.3429691474302989</v>
       </c>
       <c r="DH3">
-        <v>0.3334737653486344</v>
+        <v>2.762038228809092</v>
       </c>
       <c r="DI3">
-        <v>4.333285917669098</v>
+        <v>0.3477941066378643</v>
       </c>
       <c r="DJ3">
-        <v>2.340419395238365</v>
+        <v>5.26986409972722</v>
       </c>
       <c r="DK3">
-        <v>0.333650569446548</v>
+        <v>0.3357259635629304</v>
       </c>
       <c r="DL3">
-        <v>0.3354225423997416</v>
+        <v>12.8835566785911</v>
       </c>
       <c r="DM3">
-        <v>0.3333654550415558</v>
+        <v>0.4013878820129904</v>
       </c>
       <c r="DN3">
-        <v>0.3333670427800405</v>
+        <v>9.226861602280451</v>
       </c>
       <c r="DO3">
-        <v>0.3333670427800405</v>
+        <v>1.533246529050155</v>
       </c>
       <c r="DP3">
-        <v>0.3334244623335723</v>
+        <v>224.8987662846459</v>
       </c>
       <c r="DQ3">
-        <v>0.3333653349601186</v>
+        <v>0.3365483383468267</v>
       </c>
       <c r="DR3">
-        <v>0.3333656218710556</v>
+        <v>0.3703731221905961</v>
       </c>
       <c r="DS3">
-        <v>0.3333652444214851</v>
+        <v>0.4205658291152298</v>
       </c>
       <c r="DT3">
-        <v>0.3333714184575275</v>
+        <v>0.3576322685604058</v>
       </c>
       <c r="DU3">
-        <v>1.333789976810181</v>
+        <v>0.3682075531451344</v>
       </c>
       <c r="DV3">
-        <v>4.333285917669098</v>
+        <v>0.3989395219412378</v>
       </c>
       <c r="DW3">
-        <v>0.3333865116848655</v>
+        <v>0.3658371726280826</v>
       </c>
       <c r="DX3">
-        <v>0.3333662725199388</v>
+        <v>0.3701608130332877</v>
       </c>
       <c r="DY3">
-        <v>0.3333648600593517</v>
+        <v>0.3457858506775743</v>
       </c>
       <c r="DZ3">
-        <v>0.3334592984283304</v>
+        <v>3.747846621687786</v>
       </c>
       <c r="EA3">
-        <v>4.448524438793344</v>
+        <v>0.4124349552487694</v>
       </c>
       <c r="EB3">
-        <v>2.333305125192461</v>
+        <v>2.386199842599379</v>
       </c>
       <c r="EC3">
-        <v>1.329141810528607</v>
+        <v>9.486224397304959</v>
       </c>
       <c r="ED3">
-        <v>15.8615679275959</v>
+        <v>0.3817951433311082</v>
       </c>
       <c r="EE3">
-        <v>0.3333662725199388</v>
+        <v>0.3425919909138688</v>
       </c>
       <c r="EF3">
-        <v>1.33494964776183</v>
+        <v>0.3901665441345941</v>
       </c>
       <c r="EG3">
-        <v>3.333304025334014</v>
+        <v>3.924876418274739</v>
       </c>
       <c r="EH3">
-        <v>0.3555411551483918</v>
+        <v>0.4093687734144535</v>
       </c>
       <c r="EI3">
-        <v>4.333285917669098</v>
+        <v>3.771816028594867</v>
       </c>
       <c r="EJ3">
-        <v>0.3333997484810963</v>
+        <v>0.3587177038985966</v>
       </c>
       <c r="EK3">
-        <v>0.3333670427800405</v>
+        <v>0.3410739237568749</v>
       </c>
       <c r="EL3">
-        <v>2.537007130823915</v>
+        <v>0.3622889643061235</v>
       </c>
       <c r="EM3">
-        <v>0.3335772482007749</v>
+        <v>1.661888786255608</v>
       </c>
       <c r="EN3">
-        <v>0.3333670427800405</v>
+        <v>0.3599827352791173</v>
       </c>
       <c r="EO3">
-        <v>0.3333670427800405</v>
+        <v>0.3835732565452128</v>
       </c>
       <c r="EP3">
-        <v>4.333285917669098</v>
+        <v>0.430635301623582</v>
       </c>
       <c r="EQ3">
-        <v>0.3343819894830152</v>
+        <v>0.4420451681899288</v>
       </c>
       <c r="ER3">
-        <v>0.3335242214784609</v>
+        <v>15.80857829556679</v>
       </c>
       <c r="ES3">
-        <v>0.3334618393977864</v>
+        <v>0.3770426958239252</v>
       </c>
       <c r="ET3">
-        <v>0.3334561124257816</v>
+        <v>0.3975903354362775</v>
       </c>
       <c r="EU3">
-        <v>1.334155662958528</v>
+        <v>3.480247501081777</v>
       </c>
       <c r="EV3">
-        <v>0.3333739132535092</v>
+        <v>0.366807403121595</v>
       </c>
       <c r="EW3">
-        <v>1.33249856051542</v>
+        <v>0.3899857858433783</v>
       </c>
       <c r="EX3">
-        <v>0.333376398688701</v>
+        <v>4.466841553667706</v>
       </c>
       <c r="EY3">
-        <v>0.3333853676464183</v>
+        <v>15.74869097449695</v>
       </c>
       <c r="EZ3">
-        <v>0.3333670427800405</v>
+        <v>1.47340412490843</v>
       </c>
       <c r="FA3">
-        <v>2.337302573159729</v>
+        <v>2.713939321134594</v>
       </c>
       <c r="FB3">
-        <v>0.3340957979401944</v>
+        <v>0.3854502509685147</v>
       </c>
       <c r="FC3">
-        <v>1.336273694430951</v>
+        <v>0.3409223541294197</v>
       </c>
       <c r="FD3">
-        <v>0.3333739132535092</v>
+        <v>4.625694723354037</v>
       </c>
       <c r="FE3">
-        <v>0.333443495006063</v>
+        <v>0.3395618775065155</v>
       </c>
       <c r="FF3">
-        <v>0.3334302106634177</v>
+        <v>3.850155305418478</v>
       </c>
       <c r="FG3">
-        <v>0.3343719810363304</v>
+        <v>0.3378972516135346</v>
       </c>
       <c r="FH3">
-        <v>3.43434019163263</v>
+        <v>2.259706052658572</v>
       </c>
       <c r="FI3">
-        <v>0.3334447489144008</v>
+        <v>2.205796390406042</v>
       </c>
       <c r="FJ3">
-        <v>2.333305125192461</v>
+        <v>224.0736870500798</v>
       </c>
       <c r="FK3">
-        <v>0.3529435271968725</v>
+        <v>0.4077124385884512</v>
       </c>
       <c r="FL3">
-        <v>0.333505086029654</v>
+        <v>2.657548532549694</v>
       </c>
       <c r="FM3">
-        <v>0.3333760713841551</v>
+        <v>0.3639440221836849</v>
       </c>
       <c r="FN3">
-        <v>0.3333658691213922</v>
+        <v>0.3823055701468465</v>
       </c>
       <c r="FO3">
-        <v>1.332364436705315</v>
+        <v>6.630556080354876</v>
       </c>
       <c r="FP3">
-        <v>0.3334324777695003</v>
+        <v>16.50834597946237</v>
       </c>
       <c r="FQ3">
-        <v>12.46853926723091</v>
+        <v>0.4170971201805553</v>
       </c>
       <c r="FR3">
-        <v>0.3335242214784609</v>
+        <v>8.486360738856604</v>
       </c>
       <c r="FS3">
-        <v>0.3333739132535092</v>
+        <v>4.04524542314447</v>
       </c>
       <c r="FT3">
-        <v>5.326480009263486</v>
+        <v>0.4148240194942506</v>
       </c>
       <c r="FU3">
-        <v>0.3335975184173005</v>
+        <v>7.696865550661729</v>
       </c>
       <c r="FV3">
-        <v>0.3334131822575059</v>
+        <v>0.3613199404156947</v>
       </c>
       <c r="FW3">
-        <v>0.3333997484810963</v>
+        <v>0.3424605590670588</v>
       </c>
       <c r="FX3">
-        <v>0.3334948936375107</v>
+        <v>2.426853522763994</v>
       </c>
       <c r="FY3">
-        <v>4.333285917669098</v>
+        <v>3.03024205384142</v>
       </c>
       <c r="FZ3">
-        <v>4.333285917669098</v>
+        <v>0.3463788587402936</v>
       </c>
       <c r="GA3">
-        <v>0.334859797904377</v>
+        <v>0.3794694551365113</v>
       </c>
       <c r="GB3">
-        <v>0.3333997484810963</v>
+        <v>1.49458453004015</v>
       </c>
       <c r="GC3">
-        <v>1.341511597438256</v>
+        <v>7.376834311092321</v>
       </c>
       <c r="GD3">
-        <v>1.337151773333322</v>
+        <v>0.4553430749175402</v>
       </c>
       <c r="GE3">
-        <v>0.3342565370286504</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="GF3">
-        <v>0.3360039967332105</v>
+        <v>2.254258773784199</v>
       </c>
       <c r="GG3">
-        <v>6.333286521040702</v>
+        <v>4.458350190986268</v>
       </c>
       <c r="GH3">
-        <v>4.542958034732743</v>
+        <v>0.4651753693475504</v>
       </c>
       <c r="GI3">
-        <v>0.3334324777695003</v>
+        <v>0.3349486773936122</v>
       </c>
       <c r="GJ3">
-        <v>1.365974811608345</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="GK3">
-        <v>17.32253879797834</v>
+        <v>206.3246034434389</v>
       </c>
       <c r="GL3">
-        <v>5.92640122034258</v>
+        <v>3.98203377879125</v>
       </c>
       <c r="GM3">
-        <v>10.20536882519103</v>
+        <v>1.389593486786508</v>
       </c>
       <c r="GN3">
-        <v>0.3333743014865838</v>
+        <v>0.4110155492617645</v>
       </c>
       <c r="GO3">
-        <v>0.3334602639891458</v>
+        <v>9.444202139066924</v>
       </c>
       <c r="GP3">
-        <v>6.333286521040702</v>
+        <v>5.943603731633083</v>
       </c>
       <c r="GQ3">
-        <v>3.333266630536719</v>
+        <v>0.3857192517426413</v>
       </c>
       <c r="GR3">
-        <v>1.335904250742135</v>
+        <v>3.03756467427664</v>
       </c>
       <c r="GS3">
-        <v>0.3336072034180342</v>
+        <v>10.81268526737567</v>
+      </c>
+      <c r="GT3">
+        <v>0.3589740914359704</v>
+      </c>
+      <c r="GU3">
+        <v>4.597265973122335</v>
+      </c>
+      <c r="GV3">
+        <v>1.985962512472892</v>
+      </c>
+      <c r="GW3">
+        <v>0.3519642343310055</v>
+      </c>
+      <c r="GX3">
+        <v>28.14331197722183</v>
+      </c>
+      <c r="GY3">
+        <v>0.360675274564337</v>
+      </c>
+      <c r="GZ3">
+        <v>0.4900725556339544</v>
+      </c>
+      <c r="HA3">
+        <v>0.3693115702798581</v>
+      </c>
+      <c r="HB3">
+        <v>6.34191536175098</v>
+      </c>
+      <c r="HC3">
+        <v>2.706013393148228</v>
+      </c>
+      <c r="HD3">
+        <v>0.5152612880666105</v>
+      </c>
+      <c r="HE3">
+        <v>0.3353212402955268</v>
+      </c>
+      <c r="HF3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="HG3">
+        <v>0.3650641906544643</v>
+      </c>
+      <c r="HH3">
+        <v>5.031651854859099</v>
+      </c>
+      <c r="HI3">
+        <v>0.4004528377678727</v>
+      </c>
+      <c r="HJ3">
+        <v>0.4124312444368762</v>
+      </c>
+      <c r="HK3">
+        <v>7.603051599237235</v>
+      </c>
+      <c r="HL3">
+        <v>9.777292002663421</v>
+      </c>
+      <c r="HM3">
+        <v>0.3660618162443367</v>
+      </c>
+      <c r="HN3">
+        <v>0.4094724111781107</v>
+      </c>
+      <c r="HO3">
+        <v>0.4855916876325279</v>
+      </c>
+      <c r="HP3">
+        <v>7.054972784523341</v>
+      </c>
+      <c r="HQ3">
+        <v>0.4198297760687603</v>
+      </c>
+      <c r="HR3">
+        <v>0.4114885329881472</v>
+      </c>
+      <c r="HS3">
+        <v>4.946102445943221</v>
+      </c>
+      <c r="HT3">
+        <v>0.3984643783740384</v>
+      </c>
+      <c r="HU3">
+        <v>0.38272964629953</v>
+      </c>
+      <c r="HV3">
+        <v>0.3670338288809873</v>
+      </c>
+      <c r="HW3">
+        <v>2.669932836424347</v>
+      </c>
+      <c r="HX3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="HY3">
+        <v>7.449491870589322</v>
+      </c>
+      <c r="HZ3">
+        <v>0.3582625063343316</v>
+      </c>
+      <c r="IA3">
+        <v>0.4275413668969426</v>
+      </c>
+      <c r="IB3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="IC3">
+        <v>0.3541088066815952</v>
+      </c>
+      <c r="ID3">
+        <v>0.3494051613260352</v>
+      </c>
+      <c r="IE3">
+        <v>2.254521106817632</v>
+      </c>
+      <c r="IF3">
+        <v>0.3533848276098915</v>
+      </c>
+      <c r="IG3">
+        <v>0.3473918160047796</v>
+      </c>
+      <c r="IH3">
+        <v>21.19281710248774</v>
+      </c>
+      <c r="II3">
+        <v>223.2609767217307</v>
+      </c>
+      <c r="IJ3">
+        <v>1.314985385263425</v>
+      </c>
+      <c r="IK3">
+        <v>0.3490703379833117</v>
+      </c>
+      <c r="IL3">
+        <v>0.3375682805104525</v>
+      </c>
+      <c r="IM3">
+        <v>0.4257320307670699</v>
+      </c>
+      <c r="IN3">
+        <v>24.24589848366416</v>
+      </c>
+      <c r="IO3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="IP3">
+        <v>2.11485890812807</v>
+      </c>
+      <c r="IQ3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="IR3">
+        <v>0.3356969905528162</v>
+      </c>
+      <c r="IS3">
+        <v>0.4301995936360853</v>
+      </c>
+      <c r="IT3">
+        <v>0.3527019473054904</v>
+      </c>
+      <c r="IU3">
+        <v>13.815364240333</v>
+      </c>
+      <c r="IV3">
+        <v>0.3599777265364591</v>
+      </c>
+      <c r="IW3">
+        <v>41.98529771262003</v>
+      </c>
+      <c r="IX3">
+        <v>15.35169315243392</v>
+      </c>
+      <c r="IY3">
+        <v>7.491943801756337</v>
+      </c>
+      <c r="IZ3">
+        <v>2.545263338922935</v>
+      </c>
+      <c r="JA3">
+        <v>3.279410242743908</v>
+      </c>
+      <c r="JB3">
+        <v>2.768682367728059</v>
+      </c>
+      <c r="JC3">
+        <v>0.3460468395156585</v>
+      </c>
+      <c r="JD3">
+        <v>0.3354512248276951</v>
+      </c>
+      <c r="JE3">
+        <v>0.3416879637768738</v>
+      </c>
+      <c r="JF3">
+        <v>0.3380105044760425</v>
+      </c>
+      <c r="JG3">
+        <v>0.3410628733590762</v>
+      </c>
+      <c r="JH3">
+        <v>0.3347693731852622</v>
+      </c>
+      <c r="JI3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="JJ3">
+        <v>0.3997115687632559</v>
+      </c>
+      <c r="JK3">
+        <v>7.625442015502074</v>
+      </c>
+      <c r="JL3">
+        <v>0.3868877434916512</v>
+      </c>
+      <c r="JM3">
+        <v>0.3994862627917244</v>
+      </c>
+      <c r="JN3">
+        <v>6.015362835562104</v>
+      </c>
+      <c r="JO3">
+        <v>0.3517696302995287</v>
+      </c>
+      <c r="JP3">
+        <v>0.3685460974654809</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3720286449321512</v>
+      </c>
+      <c r="JR3">
+        <v>6.132572592520898</v>
+      </c>
+      <c r="JS3">
+        <v>13.72570633658379</v>
+      </c>
+      <c r="JT3">
+        <v>8.40625609740642</v>
+      </c>
+      <c r="JU3">
+        <v>0.3492335341750439</v>
+      </c>
+      <c r="JV3">
+        <v>0.4445585252690401</v>
+      </c>
+      <c r="JW3">
+        <v>5.574658225952224</v>
+      </c>
+      <c r="JX3">
+        <v>3.648326109735239</v>
+      </c>
+      <c r="JY3">
+        <v>0.3614997678557089</v>
+      </c>
+      <c r="JZ3">
+        <v>0.3882988393299705</v>
+      </c>
+      <c r="KA3">
+        <v>8.666398169010963</v>
+      </c>
+      <c r="KB3">
+        <v>0.386315111984557</v>
+      </c>
+      <c r="KC3">
+        <v>19.14892099096565</v>
+      </c>
+      <c r="KD3">
+        <v>0.384758241820395</v>
+      </c>
+      <c r="KE3">
+        <v>0.8051545666998412</v>
+      </c>
+      <c r="KF3">
+        <v>2.334220665254249</v>
+      </c>
+      <c r="KG3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="KH3">
+        <v>2.011476817633248</v>
+      </c>
+      <c r="KI3">
+        <v>6.613086435185758</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3785662869488711</v>
+      </c>
+      <c r="KK3">
+        <v>1.543127865879832</v>
+      </c>
+      <c r="KL3">
+        <v>0.3993761441988959</v>
+      </c>
+      <c r="KM3">
+        <v>0.3726487874533316</v>
+      </c>
+      <c r="KN3">
+        <v>2.368620858641652</v>
+      </c>
+      <c r="KO3">
+        <v>8.713307376745743</v>
+      </c>
+      <c r="KP3">
+        <v>0.3471970406016885</v>
+      </c>
+      <c r="KQ3">
+        <v>0.3822191051066718</v>
+      </c>
+      <c r="KR3">
+        <v>0.3387150503339197</v>
+      </c>
+      <c r="KS3">
+        <v>3.155795649588993</v>
+      </c>
+      <c r="KT3">
+        <v>3.918629588810429</v>
+      </c>
+      <c r="KU3">
+        <v>2.132044869687918</v>
+      </c>
+      <c r="KV3">
+        <v>0.3582630826830251</v>
+      </c>
+      <c r="KW3">
+        <v>0.3612675167617303</v>
+      </c>
+      <c r="KX3">
+        <v>4.958903428623515</v>
+      </c>
+      <c r="KY3">
+        <v>4.885870453049323</v>
+      </c>
+      <c r="KZ3">
+        <v>0.4266286682099336</v>
+      </c>
+      <c r="LA3">
+        <v>22.39595556909903</v>
+      </c>
+      <c r="LB3">
+        <v>2.209505915425161</v>
+      </c>
+      <c r="LC3">
+        <v>0.3571258792340786</v>
+      </c>
+      <c r="LD3">
+        <v>3.692364451699754</v>
+      </c>
+      <c r="LE3">
+        <v>1.951794046665329</v>
+      </c>
+      <c r="LF3">
+        <v>0.346383453488729</v>
+      </c>
+      <c r="LG3">
+        <v>7.074894291569729</v>
+      </c>
+      <c r="LH3">
+        <v>0.4158983428985086</v>
+      </c>
+      <c r="LI3">
+        <v>1.746595040827053</v>
+      </c>
+      <c r="LJ3">
+        <v>0.356310803731163</v>
+      </c>
+      <c r="LK3">
+        <v>5.104530664953303</v>
+      </c>
+      <c r="LL3">
+        <v>0.4007919817767149</v>
+      </c>
+      <c r="LM3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="LN3">
+        <v>0.3961776785778728</v>
+      </c>
+      <c r="LO3">
+        <v>0.4288830757492836</v>
+      </c>
+      <c r="LP3">
+        <v>0.3458157120128633</v>
+      </c>
+      <c r="LQ3">
+        <v>0.408488955510147</v>
+      </c>
+      <c r="LR3">
+        <v>2.075113818726645</v>
+      </c>
+      <c r="LS3">
+        <v>0.3605345972334897</v>
+      </c>
+      <c r="LT3">
+        <v>0.3336043599495169</v>
+      </c>
+      <c r="LU3">
+        <v>0.3419616587129864</v>
+      </c>
+      <c r="LV3">
+        <v>2.448649433101874</v>
+      </c>
+      <c r="LW3">
+        <v>0.7935572780435919</v>
+      </c>
+      <c r="LX3">
+        <v>0.356445787059375</v>
+      </c>
+      <c r="LY3">
+        <v>0.3916018840725289</v>
+      </c>
+      <c r="LZ3">
+        <v>5.085594921494747</v>
+      </c>
+      <c r="MA3">
+        <v>0.3634637379347567</v>
+      </c>
+      <c r="MB3">
+        <v>0.3881789684980292</v>
+      </c>
+      <c r="MC3">
+        <v>1.356392213880954</v>
+      </c>
+      <c r="MD3">
+        <v>4.300528779363452</v>
+      </c>
+      <c r="ME3">
+        <v>0.3676239785407011</v>
+      </c>
+      <c r="MF3">
+        <v>0.4788923914503332</v>
+      </c>
+      <c r="MG3">
+        <v>0.3863049151848874</v>
+      </c>
+      <c r="MH3">
+        <v>0.3841446030799076</v>
+      </c>
+      <c r="MI3">
+        <v>0.4104137878880476</v>
+      </c>
+      <c r="MJ3">
+        <v>2.43129978170134</v>
+      </c>
+      <c r="MK3">
+        <v>14.98787163849485</v>
+      </c>
+      <c r="ML3">
+        <v>5.938764491768113</v>
+      </c>
+      <c r="MM3">
+        <v>0.4368203342291534</v>
+      </c>
+      <c r="MN3">
+        <v>0.4026913298802596</v>
+      </c>
+      <c r="MO3">
+        <v>0.4508633812195949</v>
+      </c>
+      <c r="MP3">
+        <v>4.086252961145162</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3607671315529827</v>
+      </c>
+      <c r="MR3">
+        <v>4.429965890787673</v>
+      </c>
+      <c r="MS3">
+        <v>0.3360449789202816</v>
+      </c>
+      <c r="MT3">
+        <v>0.3811401163104102</v>
+      </c>
+      <c r="MU3">
+        <v>0.3442879455414799</v>
+      </c>
+      <c r="MV3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="MW3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="MX3">
+        <v>0.3935430626202729</v>
+      </c>
+      <c r="MY3">
+        <v>0.4240379449066971</v>
+      </c>
+      <c r="MZ3">
+        <v>0.3865043867925522</v>
+      </c>
+      <c r="NA3">
+        <v>0.3823417215137168</v>
+      </c>
+      <c r="NB3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="NC3">
+        <v>0.4418407344770281</v>
+      </c>
+      <c r="ND3">
+        <v>3.831511998679306</v>
+      </c>
+      <c r="NE3">
+        <v>0.3475960773167098</v>
+      </c>
+      <c r="NF3">
+        <v>1.412366882191123</v>
+      </c>
+      <c r="NG3">
+        <v>0.3578928112457161</v>
+      </c>
+      <c r="NH3">
+        <v>3.593847329274733</v>
+      </c>
+      <c r="NI3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="NJ3">
+        <v>0.42902198684464</v>
+      </c>
+      <c r="NK3">
+        <v>0.3461733840506399</v>
+      </c>
+      <c r="NL3">
+        <v>0.3742461155539348</v>
+      </c>
+      <c r="NM3">
+        <v>1.348175482765891</v>
+      </c>
+      <c r="NN3">
+        <v>0.4368536810368934</v>
+      </c>
+      <c r="NO3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="NP3">
+        <v>0.3742641879310496</v>
+      </c>
+      <c r="NQ3">
+        <v>0.3391900811833916</v>
+      </c>
+      <c r="NR3">
+        <v>206.3246034434389</v>
+      </c>
+      <c r="NS3">
+        <v>0.4177398936289486</v>
+      </c>
+      <c r="NT3">
+        <v>0.424097987537168</v>
+      </c>
+      <c r="NU3">
+        <v>0.4189563552257831</v>
+      </c>
+      <c r="NV3">
+        <v>0.381689101863151</v>
+      </c>
+      <c r="NW3">
+        <v>2.432985996425833</v>
+      </c>
+      <c r="NX3">
+        <v>0.3815503336759277</v>
+      </c>
+      <c r="NY3">
+        <v>4.977831029257923</v>
+      </c>
+      <c r="NZ3">
+        <v>2.295688518248741</v>
+      </c>
+      <c r="OA3">
+        <v>9.904735009004352</v>
+      </c>
+      <c r="OB3">
+        <v>2.548557166302519</v>
+      </c>
+      <c r="OC3">
+        <v>0.3349268956892177</v>
+      </c>
+      <c r="OD3">
+        <v>0.4440450587114335</v>
+      </c>
+      <c r="OE3">
+        <v>0.4116030515053232</v>
+      </c>
+      <c r="OF3">
+        <v>0.431479089585036</v>
+      </c>
+      <c r="OG3">
+        <v>218.3018184468625</v>
+      </c>
+      <c r="OH3">
+        <v>0.3554660820002749</v>
+      </c>
+      <c r="OI3">
+        <v>0.3759067278876659</v>
+      </c>
+      <c r="OJ3">
+        <v>2.001866397600017</v>
+      </c>
+      <c r="OK3">
+        <v>0.3619407217649499</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>6.34187499490162</v>
+        <v>256.1667464877004</v>
       </c>
       <c r="C4">
-        <v>3.333263342026211</v>
+        <v>182.8709284476489</v>
       </c>
       <c r="D4">
-        <v>3.333136757036141</v>
+        <v>116.3476500080787</v>
       </c>
       <c r="E4">
-        <v>3.315497151265212</v>
+        <v>248.5694864885282</v>
       </c>
       <c r="F4">
-        <v>7.31948394437413</v>
+        <v>127.5804020516555</v>
       </c>
       <c r="G4">
-        <v>0.3334028817056987</v>
+        <v>75.65815952739223</v>
       </c>
       <c r="H4">
-        <v>0.333355357881394</v>
+        <v>60.73983018176231</v>
       </c>
       <c r="I4">
-        <v>0.333344262573545</v>
+        <v>47.11235739670279</v>
       </c>
       <c r="J4">
-        <v>0.3333447434151611</v>
+        <v>11.60248266954434</v>
       </c>
       <c r="K4">
-        <v>5.358556329887971</v>
+        <v>83.25078791879397</v>
       </c>
       <c r="L4">
-        <v>2.333267966399779</v>
+        <v>42.69181226503702</v>
       </c>
       <c r="M4">
-        <v>0.3333447434151611</v>
+        <v>12.94525771058316</v>
       </c>
       <c r="N4">
-        <v>3.335140498127844</v>
+        <v>77.06814082141449</v>
       </c>
       <c r="O4">
-        <v>0.3333827238894579</v>
+        <v>0.3687878931864933</v>
       </c>
       <c r="P4">
-        <v>3.333174260829678</v>
+        <v>80.45168325397992</v>
       </c>
       <c r="Q4">
-        <v>0.3333720377608943</v>
+        <v>0.3456162069727813</v>
       </c>
       <c r="R4">
-        <v>0.3333729429434249</v>
+        <v>21.85507331917486</v>
       </c>
       <c r="S4">
-        <v>0.3333720377608943</v>
+        <v>0.3984910128460151</v>
       </c>
       <c r="T4">
-        <v>2.333267966399779</v>
+        <v>0.3983656354229724</v>
       </c>
       <c r="U4">
-        <v>3.333009092588549</v>
+        <v>41.41470590760282</v>
       </c>
       <c r="V4">
-        <v>2.332144365810818</v>
+        <v>0.3640310718672358</v>
       </c>
       <c r="W4">
-        <v>0.3333619086212791</v>
+        <v>87.71096666333396</v>
       </c>
       <c r="X4">
-        <v>0.3333447434151611</v>
+        <v>77.74273787920806</v>
       </c>
       <c r="Y4">
-        <v>2.333272177209277</v>
+        <v>0.3440278002936227</v>
       </c>
       <c r="Z4">
-        <v>3.333178973367467</v>
+        <v>44.65259676696265</v>
       </c>
       <c r="AA4">
-        <v>4.81082943210437</v>
+        <v>162.3032535070652</v>
       </c>
       <c r="AB4">
-        <v>1.332559203293241</v>
+        <v>0.3818428581689953</v>
       </c>
       <c r="AC4">
-        <v>5.333193462019507</v>
+        <v>225.5634139076635</v>
       </c>
       <c r="AD4">
-        <v>14.2956098400587</v>
+        <v>69.08523026157205</v>
       </c>
       <c r="AE4">
-        <v>4.333278370336043</v>
+        <v>244.7799980811362</v>
       </c>
       <c r="AF4">
-        <v>2.333276387749548</v>
+        <v>367.3814231622921</v>
       </c>
       <c r="AG4">
-        <v>0.3333618017997953</v>
+        <v>0.3520056061010809</v>
       </c>
       <c r="AH4">
-        <v>3.333267420760502</v>
+        <v>0.369306264156364</v>
       </c>
       <c r="AI4">
-        <v>0.333355357881394</v>
+        <v>78.248127687295</v>
       </c>
       <c r="AJ4">
-        <v>4.333270242306434</v>
+        <v>0.354486357926581</v>
       </c>
       <c r="AK4">
-        <v>0.3400758850042119</v>
+        <v>288.4008374106152</v>
       </c>
       <c r="AL4">
-        <v>11.3264940729451</v>
+        <v>187.5675870393792</v>
       </c>
       <c r="AM4">
-        <v>0.3334377363133038</v>
+        <v>0.3439901494923065</v>
       </c>
       <c r="AN4">
-        <v>28.34784147678564</v>
+        <v>116.2043435820152</v>
       </c>
       <c r="AO4">
-        <v>0.3333444827579518</v>
+        <v>164.5227063077295</v>
       </c>
       <c r="AP4">
-        <v>3.333236039342176</v>
+        <v>54.73067921898333</v>
       </c>
       <c r="AQ4">
-        <v>15.33327992969199</v>
+        <v>324.9940560847137</v>
       </c>
       <c r="AR4">
-        <v>4.32622439933731</v>
+        <v>419.9873963217557</v>
       </c>
       <c r="AS4">
-        <v>2.333267966399779</v>
+        <v>233.4069656103948</v>
       </c>
       <c r="AT4">
-        <v>5.835046455300579</v>
+        <v>0.3765805057016142</v>
       </c>
       <c r="AU4">
-        <v>8.490154450818066</v>
+        <v>176.5935386342881</v>
       </c>
       <c r="AV4">
-        <v>2.333267966399779</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="AW4">
-        <v>2.331456965140767</v>
+        <v>45.29485809470911</v>
       </c>
       <c r="AX4">
-        <v>0.333372339346019</v>
+        <v>0.3393316310344002</v>
       </c>
       <c r="AY4">
-        <v>2.332335820062296</v>
+        <v>0.3598301374560393</v>
       </c>
       <c r="AZ4">
-        <v>16.34446171040758</v>
+        <v>125.9765028142481</v>
       </c>
       <c r="BA4">
-        <v>3.33422171843782</v>
+        <v>185.7717586823618</v>
       </c>
       <c r="BB4">
-        <v>3.333216458716225</v>
+        <v>197.5275465554149</v>
       </c>
       <c r="BC4">
-        <v>1.331389724168748</v>
+        <v>0.3505908897770894</v>
       </c>
       <c r="BD4">
-        <v>7.33326533430779</v>
+        <v>9.28997591969795</v>
       </c>
       <c r="BE4">
-        <v>0.3333729429434249</v>
+        <v>951.4375476577225</v>
       </c>
       <c r="BF4">
-        <v>2.333276387749548</v>
+        <v>0.3633384299231305</v>
       </c>
       <c r="BG4">
-        <v>4.333130106002081</v>
+        <v>0.3791731183221274</v>
       </c>
       <c r="BH4">
-        <v>0.3333810393476508</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="BI4">
-        <v>3.333009092588549</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="BJ4">
-        <v>8.346281761681375</v>
+        <v>556.8793873147226</v>
       </c>
       <c r="BK4">
-        <v>0.3333444827579518</v>
+        <v>20.2832567995028</v>
       </c>
       <c r="BL4">
-        <v>8.338120314937935</v>
+        <v>0.3580085580962423</v>
       </c>
       <c r="BM4">
-        <v>0.333362057029052</v>
+        <v>36.85318065586581</v>
       </c>
       <c r="BN4">
-        <v>1.307811386145324</v>
+        <v>90.26260854060841</v>
       </c>
       <c r="BO4">
-        <v>3.333178671509047</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="BP4">
-        <v>0.3800460551703888</v>
+        <v>49.09172925876865</v>
       </c>
       <c r="BQ4">
-        <v>2.333276387749548</v>
+        <v>14.50067627107075</v>
       </c>
       <c r="BR4">
-        <v>0.3333605816537938</v>
+        <v>64.90225808853101</v>
       </c>
       <c r="BS4">
-        <v>5.333265924092086</v>
+        <v>54.80023107531346</v>
       </c>
       <c r="BT4">
-        <v>4.333278370336043</v>
+        <v>392.0544930422062</v>
       </c>
       <c r="BU4">
-        <v>3.333201197586357</v>
+        <v>0.3582668543381411</v>
       </c>
       <c r="BV4">
-        <v>2.333267966399779</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="BW4">
-        <v>1.331389724168748</v>
+        <v>34.51024324775592</v>
       </c>
       <c r="BX4">
-        <v>1.321821629551908</v>
+        <v>11.94247465741242</v>
       </c>
       <c r="BY4">
-        <v>3.333009092588549</v>
+        <v>28.60378462730757</v>
       </c>
       <c r="BZ4">
-        <v>11.32597732012382</v>
+        <v>0.3789817134771853</v>
       </c>
       <c r="CA4">
-        <v>3.333093921744378</v>
+        <v>33.22606604084144</v>
       </c>
       <c r="CB4">
-        <v>3.333263342026211</v>
+        <v>0.3477561853310385</v>
       </c>
       <c r="CC4">
-        <v>8.230794438847466</v>
+        <v>36.24886147047039</v>
       </c>
       <c r="CD4">
-        <v>2.326082527246186</v>
+        <v>17.01337991478564</v>
       </c>
       <c r="CE4">
-        <v>12.33876896860515</v>
+        <v>33.43087680329849</v>
       </c>
       <c r="CF4">
-        <v>5.027438689205353</v>
+        <v>56.16719468153875</v>
       </c>
       <c r="CG4">
-        <v>2.333267966399779</v>
+        <v>544.5941158060205</v>
       </c>
       <c r="CH4">
-        <v>3.333277688900005</v>
+        <v>254.8871397094291</v>
       </c>
       <c r="CI4">
-        <v>8.333271453692619</v>
+        <v>10.61160353228814</v>
       </c>
       <c r="CJ4">
-        <v>5.966196040718735</v>
+        <v>0.3847200798212184</v>
       </c>
       <c r="CK4">
-        <v>2.334422192546892</v>
+        <v>114.0069856484823</v>
       </c>
       <c r="CL4">
-        <v>2.333215576876263</v>
+        <v>89.95032536401202</v>
       </c>
       <c r="CM4">
-        <v>2.333267966399779</v>
+        <v>0.3768732934502113</v>
       </c>
       <c r="CN4">
-        <v>2.332410093362525</v>
+        <v>0.4103479878182338</v>
       </c>
       <c r="CO4">
-        <v>2.333272177209277</v>
+        <v>124.2344483065145</v>
       </c>
       <c r="CP4">
-        <v>3.333269460055047</v>
+        <v>0.3407507538589367</v>
       </c>
       <c r="CQ4">
-        <v>4.333013069392711</v>
+        <v>1069.526105579188</v>
       </c>
       <c r="CR4">
-        <v>0.3333710399877479</v>
+        <v>0.3447390435410143</v>
       </c>
       <c r="CS4">
-        <v>0.3333446693934462</v>
+        <v>163.6978184988751</v>
       </c>
       <c r="CT4">
-        <v>0.3333722160508337</v>
+        <v>5.139847013415517</v>
       </c>
       <c r="CU4">
-        <v>3.333221168356863</v>
+        <v>128.6436751089337</v>
       </c>
       <c r="CV4">
-        <v>0.333355357881394</v>
+        <v>29.81544315121505</v>
       </c>
       <c r="CW4">
-        <v>2.333276387749548</v>
+        <v>71.13255166186877</v>
       </c>
       <c r="CX4">
-        <v>6.32631955482155</v>
+        <v>550.1368135737116</v>
       </c>
       <c r="CY4">
-        <v>2.334102379535835</v>
+        <v>5.505416040307293</v>
       </c>
       <c r="CZ4">
-        <v>0.3503515926029043</v>
+        <v>52.05870647608756</v>
       </c>
       <c r="DA4">
-        <v>2.333267966399779</v>
+        <v>13.47011189580684</v>
       </c>
       <c r="DB4">
-        <v>2.333267966399779</v>
+        <v>0.3707723965117658</v>
       </c>
       <c r="DC4">
-        <v>7.229957916440909</v>
+        <v>0.3960104452063968</v>
       </c>
       <c r="DD4">
-        <v>0.3335885002714778</v>
+        <v>0.3561477107945213</v>
       </c>
       <c r="DE4">
-        <v>0.333355357881394</v>
+        <v>72.81543971119639</v>
       </c>
       <c r="DF4">
-        <v>2.333267966399779</v>
+        <v>472.2899361748209</v>
       </c>
       <c r="DG4">
-        <v>11.33327179095435</v>
+        <v>0.3474819424451419</v>
       </c>
       <c r="DH4">
-        <v>4.333103941443063</v>
+        <v>63.98440126885899</v>
       </c>
       <c r="DI4">
-        <v>0.333355357881394</v>
+        <v>0.386969578070565</v>
       </c>
       <c r="DJ4">
-        <v>0.3334249194454724</v>
+        <v>71.93185976983874</v>
       </c>
       <c r="DK4">
-        <v>0.3335171356384771</v>
+        <v>9.926033472587788</v>
       </c>
       <c r="DL4">
-        <v>2.332706176860837</v>
+        <v>231.1649142468176</v>
       </c>
       <c r="DM4">
-        <v>6.333279069816051</v>
+        <v>209.16835166295</v>
       </c>
       <c r="DN4">
-        <v>2.333276387749548</v>
+        <v>225.6878679331238</v>
       </c>
       <c r="DO4">
-        <v>2.333276387749548</v>
+        <v>387.309272862377</v>
       </c>
       <c r="DP4">
-        <v>0.3333720377608943</v>
+        <v>0.3609200953893485</v>
       </c>
       <c r="DQ4">
-        <v>7.333279272662494</v>
+        <v>0.3531717953341073</v>
       </c>
       <c r="DR4">
-        <v>5.333278788000984</v>
+        <v>76.92490794955792</v>
       </c>
       <c r="DS4">
-        <v>8.333279425604074</v>
+        <v>12.05161425471603</v>
       </c>
       <c r="DT4">
-        <v>14.33327198483821</v>
+        <v>62.71504122800477</v>
       </c>
       <c r="DU4">
-        <v>1.332834322686299</v>
+        <v>55.73813373611326</v>
       </c>
       <c r="DV4">
-        <v>0.333355357881394</v>
+        <v>264.1902577802952</v>
       </c>
       <c r="DW4">
-        <v>5.333245854042773</v>
+        <v>50.9883059969316</v>
       </c>
       <c r="DX4">
-        <v>3.333277688900005</v>
+        <v>65.4552158486737</v>
       </c>
       <c r="DY4">
-        <v>20.33328007488478</v>
+        <v>0.3884790451431276</v>
       </c>
       <c r="DZ4">
-        <v>5.333140643162324</v>
+        <v>29.1148556595133</v>
       </c>
       <c r="EA4">
-        <v>24.63158897087839</v>
+        <v>22.63272669146337</v>
       </c>
       <c r="EB4">
-        <v>0.3333447434151611</v>
+        <v>0.3910876694610962</v>
       </c>
       <c r="EC4">
-        <v>18.33492767352949</v>
+        <v>213.4267048213304</v>
       </c>
       <c r="ED4">
-        <v>13.16675064743652</v>
+        <v>96.13594485339708</v>
       </c>
       <c r="EE4">
-        <v>3.333277688900005</v>
+        <v>19.71843402871957</v>
       </c>
       <c r="EF4">
-        <v>0.333387314724904</v>
+        <v>107.1187779253616</v>
       </c>
       <c r="EG4">
-        <v>0.3333448099123306</v>
+        <v>0.4041952896095515</v>
       </c>
       <c r="EH4">
-        <v>0.3335430441172337</v>
+        <v>135.78795971941</v>
       </c>
       <c r="EI4">
-        <v>0.333355357881394</v>
+        <v>122.1860841282147</v>
       </c>
       <c r="EJ4">
-        <v>2.333219790314573</v>
+        <v>30.69830847968687</v>
       </c>
       <c r="EK4">
-        <v>2.333276387749548</v>
+        <v>0.392181230898664</v>
       </c>
       <c r="EL4">
-        <v>2.329843197904574</v>
+        <v>143.3732936447165</v>
       </c>
       <c r="EM4">
-        <v>0.3339444060940071</v>
+        <v>121.6482051226237</v>
       </c>
       <c r="EN4">
-        <v>2.333276387749548</v>
+        <v>28.06432103603109</v>
       </c>
       <c r="EO4">
-        <v>2.333276387749548</v>
+        <v>54.91337919649473</v>
       </c>
       <c r="EP4">
-        <v>0.333355357881394</v>
+        <v>40.77606819472309</v>
       </c>
       <c r="EQ4">
-        <v>0.3333702039152221</v>
+        <v>39.02072023941616</v>
       </c>
       <c r="ER4">
-        <v>3.333009092588549</v>
+        <v>293.6497047694102</v>
       </c>
       <c r="ES4">
-        <v>3.333136757036141</v>
+        <v>44.31559994411721</v>
       </c>
       <c r="ET4">
-        <v>3.33488023703018</v>
+        <v>0.3504783091155763</v>
       </c>
       <c r="EU4">
-        <v>1.331525914804641</v>
+        <v>0.3683115285341921</v>
       </c>
       <c r="EV4">
-        <v>2.333267966399779</v>
+        <v>77.23277680126201</v>
       </c>
       <c r="EW4">
-        <v>3.33409178352539</v>
+        <v>75.09270835356929</v>
       </c>
       <c r="EX4">
-        <v>4.33326419923578</v>
+        <v>172.916199417022</v>
       </c>
       <c r="EY4">
-        <v>8.333250948549642</v>
+        <v>210.4158320703862</v>
       </c>
       <c r="EZ4">
-        <v>2.333276387749548</v>
+        <v>11.8825816195486</v>
       </c>
       <c r="FA4">
-        <v>3.329270512046762</v>
+        <v>23.72182478136862</v>
       </c>
       <c r="FB4">
-        <v>16.2761886317832</v>
+        <v>70.76773478649631</v>
       </c>
       <c r="FC4">
-        <v>1.348555487288888</v>
+        <v>0.4036383133758263</v>
       </c>
       <c r="FD4">
-        <v>2.333267966399779</v>
+        <v>29.54585412894593</v>
       </c>
       <c r="FE4">
-        <v>3.333169547777961</v>
+        <v>0.3575973269690317</v>
       </c>
       <c r="FF4">
-        <v>3.333167047202514</v>
+        <v>44.80267007690792</v>
       </c>
       <c r="FG4">
-        <v>0.3333657068978372</v>
+        <v>0.3533368613188091</v>
       </c>
       <c r="FH4">
-        <v>0.3333900010699606</v>
+        <v>0.3806374643854869</v>
       </c>
       <c r="FI4">
-        <v>0.3333827238894579</v>
+        <v>15.01314298823672</v>
       </c>
       <c r="FJ4">
-        <v>0.3333447434151611</v>
+        <v>0.3816349386244609</v>
       </c>
       <c r="FK4">
-        <v>0.3431166305958248</v>
+        <v>107.4368835196558</v>
       </c>
       <c r="FL4">
-        <v>0.3764217789581815</v>
+        <v>18.55706385140893</v>
       </c>
       <c r="FM4">
-        <v>5.333264724633779</v>
+        <v>180.7781458771116</v>
       </c>
       <c r="FN4">
-        <v>4.333278370336043</v>
+        <v>51.53006069121201</v>
       </c>
       <c r="FO4">
-        <v>8.338413918362102</v>
+        <v>296.2478154418303</v>
       </c>
       <c r="FP4">
-        <v>2.333163156261086</v>
+        <v>486.6105198024617</v>
       </c>
       <c r="FQ4">
-        <v>0.3350720828165387</v>
+        <v>132.3756491273926</v>
       </c>
       <c r="FR4">
-        <v>3.333009092588549</v>
+        <v>90.21394723248179</v>
       </c>
       <c r="FS4">
-        <v>2.333267966399779</v>
+        <v>168.462474437296</v>
       </c>
       <c r="FT4">
-        <v>0.3333696914863017</v>
+        <v>128.2504903604036</v>
       </c>
       <c r="FU4">
-        <v>1.322833047005627</v>
+        <v>169.5133979317111</v>
       </c>
       <c r="FV4">
-        <v>0.3333752096724687</v>
+        <v>0.3509372199116566</v>
       </c>
       <c r="FW4">
-        <v>2.333219790314573</v>
+        <v>0.3537623135199173</v>
       </c>
       <c r="FX4">
-        <v>0.3334070362513368</v>
+        <v>0.3641848278402912</v>
       </c>
       <c r="FY4">
-        <v>0.333355357881394</v>
+        <v>61.76990075220597</v>
       </c>
       <c r="FZ4">
-        <v>0.333355357881394</v>
+        <v>6.70648635208669</v>
       </c>
       <c r="GA4">
-        <v>0.334317860812099</v>
+        <v>23.56073228261574</v>
       </c>
       <c r="GB4">
-        <v>2.333219790314573</v>
+        <v>66.51509810680891</v>
       </c>
       <c r="GC4">
-        <v>4.349401307704607</v>
+        <v>241.0658921614894</v>
       </c>
       <c r="GD4">
-        <v>2.326082527246186</v>
+        <v>79.5254450443885</v>
       </c>
       <c r="GE4">
-        <v>0.3333616135970262</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="GF4">
-        <v>0.3333654713308883</v>
+        <v>113.9034065670624</v>
       </c>
       <c r="GG4">
-        <v>0.3333550776239651</v>
+        <v>136.9856649894929</v>
       </c>
       <c r="GH4">
-        <v>0.3333754003371353</v>
+        <v>15.64082907002004</v>
       </c>
       <c r="GI4">
-        <v>2.333163156261086</v>
+        <v>0.3682768164723119</v>
       </c>
       <c r="GJ4">
-        <v>0.338457066669945</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="GK4">
-        <v>3.350585843841964</v>
+        <v>0.3375368589116439</v>
       </c>
       <c r="GL4">
-        <v>16.09106491365393</v>
+        <v>195.0807809708511</v>
       </c>
       <c r="GM4">
-        <v>0.3333903306457227</v>
+        <v>0.3873958943586028</v>
       </c>
       <c r="GN4">
-        <v>3.333267420760502</v>
+        <v>117.8956978024145</v>
       </c>
       <c r="GO4">
-        <v>4.333139166442133</v>
+        <v>429.6694948361169</v>
       </c>
       <c r="GP4">
-        <v>0.3333550776239651</v>
+        <v>153.8080838578164</v>
       </c>
       <c r="GQ4">
-        <v>0.3333664544076586</v>
+        <v>0.3855983890641476</v>
       </c>
       <c r="GR4">
-        <v>3.936886440059692</v>
+        <v>43.05710377391463</v>
       </c>
       <c r="GS4">
-        <v>0.3340613471117146</v>
+        <v>191.484649653662</v>
+      </c>
+      <c r="GT4">
+        <v>47.29308847069229</v>
+      </c>
+      <c r="GU4">
+        <v>219.6257657456452</v>
+      </c>
+      <c r="GV4">
+        <v>64.07350871707277</v>
+      </c>
+      <c r="GW4">
+        <v>0.3783938551240486</v>
+      </c>
+      <c r="GX4">
+        <v>459.7138443202316</v>
+      </c>
+      <c r="GY4">
+        <v>95.271376759673</v>
+      </c>
+      <c r="GZ4">
+        <v>294.7678538352915</v>
+      </c>
+      <c r="HA4">
+        <v>0.3487525871533598</v>
+      </c>
+      <c r="HB4">
+        <v>71.45983648635939</v>
+      </c>
+      <c r="HC4">
+        <v>98.3000906285334</v>
+      </c>
+      <c r="HD4">
+        <v>12.20825992142135</v>
+      </c>
+      <c r="HE4">
+        <v>8.452725858929272</v>
+      </c>
+      <c r="HF4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="HG4">
+        <v>0.39431668229524</v>
+      </c>
+      <c r="HH4">
+        <v>188.5797040149529</v>
+      </c>
+      <c r="HI4">
+        <v>132.489492990534</v>
+      </c>
+      <c r="HJ4">
+        <v>88.78579874680891</v>
+      </c>
+      <c r="HK4">
+        <v>241.25460249544</v>
+      </c>
+      <c r="HL4">
+        <v>113.3304336160832</v>
+      </c>
+      <c r="HM4">
+        <v>21.44301364365605</v>
+      </c>
+      <c r="HN4">
+        <v>101.1094990453201</v>
+      </c>
+      <c r="HO4">
+        <v>0.377332268455828</v>
+      </c>
+      <c r="HP4">
+        <v>101.7251125871956</v>
+      </c>
+      <c r="HQ4">
+        <v>36.29095281716302</v>
+      </c>
+      <c r="HR4">
+        <v>97.55299475506276</v>
+      </c>
+      <c r="HS4">
+        <v>310.2286340779061</v>
+      </c>
+      <c r="HT4">
+        <v>252.555628513378</v>
+      </c>
+      <c r="HU4">
+        <v>12.20408907190733</v>
+      </c>
+      <c r="HV4">
+        <v>126.860108514481</v>
+      </c>
+      <c r="HW4">
+        <v>235.2664768731366</v>
+      </c>
+      <c r="HX4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="HY4">
+        <v>114.2793270263812</v>
+      </c>
+      <c r="HZ4">
+        <v>48.89200480086227</v>
+      </c>
+      <c r="IA4">
+        <v>272.5525725567264</v>
+      </c>
+      <c r="IB4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="IC4">
+        <v>52.56973962786295</v>
+      </c>
+      <c r="ID4">
+        <v>0.36323485378868</v>
+      </c>
+      <c r="IE4">
+        <v>21.3496383492202</v>
+      </c>
+      <c r="IF4">
+        <v>0.3620422096790721</v>
+      </c>
+      <c r="IG4">
+        <v>0.3521504618861713</v>
+      </c>
+      <c r="IH4">
+        <v>832.3231776721481</v>
+      </c>
+      <c r="II4">
+        <v>0.3559235962665555</v>
+      </c>
+      <c r="IJ4">
+        <v>63.20596718886366</v>
+      </c>
+      <c r="IK4">
+        <v>45.98884770076216</v>
+      </c>
+      <c r="IL4">
+        <v>0.3701716732448763</v>
+      </c>
+      <c r="IM4">
+        <v>262.1867627813363</v>
+      </c>
+      <c r="IN4">
+        <v>557.0190723765531</v>
+      </c>
+      <c r="IO4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="IP4">
+        <v>0.3597085144153398</v>
+      </c>
+      <c r="IQ4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="IR4">
+        <v>14.50067627094829</v>
+      </c>
+      <c r="IS4">
+        <v>98.23251116744423</v>
+      </c>
+      <c r="IT4">
+        <v>20.91238821624399</v>
+      </c>
+      <c r="IU4">
+        <v>526.9465792239823</v>
+      </c>
+      <c r="IV4">
+        <v>57.94037022245028</v>
+      </c>
+      <c r="IW4">
+        <v>845.4628231799933</v>
+      </c>
+      <c r="IX4">
+        <v>164.8406746943525</v>
+      </c>
+      <c r="IY4">
+        <v>176.9101420344619</v>
+      </c>
+      <c r="IZ4">
+        <v>76.77812159474705</v>
+      </c>
+      <c r="JA4">
+        <v>33.84430165705007</v>
+      </c>
+      <c r="JB4">
+        <v>0.3858557532835914</v>
+      </c>
+      <c r="JC4">
+        <v>0.351626465046644</v>
+      </c>
+      <c r="JD4">
+        <v>0.3606428603130565</v>
+      </c>
+      <c r="JE4">
+        <v>0.3440205837189885</v>
+      </c>
+      <c r="JF4">
+        <v>0.3800990566777108</v>
+      </c>
+      <c r="JG4">
+        <v>0.3504192344353947</v>
+      </c>
+      <c r="JH4">
+        <v>473.2962854248972</v>
+      </c>
+      <c r="JI4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="JJ4">
+        <v>100.9129069583694</v>
+      </c>
+      <c r="JK4">
+        <v>136.9218188951622</v>
+      </c>
+      <c r="JL4">
+        <v>61.36514065917459</v>
+      </c>
+      <c r="JM4">
+        <v>191.157965996676</v>
+      </c>
+      <c r="JN4">
+        <v>177.2456306718339</v>
+      </c>
+      <c r="JO4">
+        <v>15.47269621688819</v>
+      </c>
+      <c r="JP4">
+        <v>0.3870291119106073</v>
+      </c>
+      <c r="JQ4">
+        <v>84.24175233915105</v>
+      </c>
+      <c r="JR4">
+        <v>94.16587547172541</v>
+      </c>
+      <c r="JS4">
+        <v>354.9970261232106</v>
+      </c>
+      <c r="JT4">
+        <v>31.40728158973015</v>
+      </c>
+      <c r="JU4">
+        <v>138.1386661699378</v>
+      </c>
+      <c r="JV4">
+        <v>148.9858407917509</v>
+      </c>
+      <c r="JW4">
+        <v>346.68356826205</v>
+      </c>
+      <c r="JX4">
+        <v>192.6031589637974</v>
+      </c>
+      <c r="JY4">
+        <v>100.0523807279105</v>
+      </c>
+      <c r="JZ4">
+        <v>90.46923490787454</v>
+      </c>
+      <c r="KA4">
+        <v>69.1236361408577</v>
+      </c>
+      <c r="KB4">
+        <v>0.3502485827506326</v>
+      </c>
+      <c r="KC4">
+        <v>526.9836368213116</v>
+      </c>
+      <c r="KD4">
+        <v>16.05691970928376</v>
+      </c>
+      <c r="KE4">
+        <v>20.92981941701854</v>
+      </c>
+      <c r="KF4">
+        <v>115.7153606627401</v>
+      </c>
+      <c r="KG4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="KH4">
+        <v>51.61471417339208</v>
+      </c>
+      <c r="KI4">
+        <v>51.3720870301296</v>
+      </c>
+      <c r="KJ4">
+        <v>39.74463836222035</v>
+      </c>
+      <c r="KK4">
+        <v>186.1025709675749</v>
+      </c>
+      <c r="KL4">
+        <v>126.6794067812928</v>
+      </c>
+      <c r="KM4">
+        <v>0.3894531892176306</v>
+      </c>
+      <c r="KN4">
+        <v>77.67230408154546</v>
+      </c>
+      <c r="KO4">
+        <v>360.4349885504204</v>
+      </c>
+      <c r="KP4">
+        <v>0.3422938596708426</v>
+      </c>
+      <c r="KQ4">
+        <v>147.2700698481072</v>
+      </c>
+      <c r="KR4">
+        <v>0.3877944433962959</v>
+      </c>
+      <c r="KS4">
+        <v>68.34000065522176</v>
+      </c>
+      <c r="KT4">
+        <v>148.7589328648206</v>
+      </c>
+      <c r="KU4">
+        <v>36.15384431743552</v>
+      </c>
+      <c r="KV4">
+        <v>58.55342571195758</v>
+      </c>
+      <c r="KW4">
+        <v>0.3878468634133501</v>
+      </c>
+      <c r="KX4">
+        <v>102.0982834389114</v>
+      </c>
+      <c r="KY4">
+        <v>66.84737513253322</v>
+      </c>
+      <c r="KZ4">
+        <v>113.1120426594143</v>
+      </c>
+      <c r="LA4">
+        <v>402.8192182176427</v>
+      </c>
+      <c r="LB4">
+        <v>19.01853833950475</v>
+      </c>
+      <c r="LC4">
+        <v>0.3588195971380617</v>
+      </c>
+      <c r="LD4">
+        <v>70.16840915788077</v>
+      </c>
+      <c r="LE4">
+        <v>119.6281588087548</v>
+      </c>
+      <c r="LF4">
+        <v>0.3694975977465877</v>
+      </c>
+      <c r="LG4">
+        <v>180.5856144270305</v>
+      </c>
+      <c r="LH4">
+        <v>187.8410570209552</v>
+      </c>
+      <c r="LI4">
+        <v>70.09514817762312</v>
+      </c>
+      <c r="LJ4">
+        <v>41.13852018889536</v>
+      </c>
+      <c r="LK4">
+        <v>118.2229997300242</v>
+      </c>
+      <c r="LL4">
+        <v>181.1644570721147</v>
+      </c>
+      <c r="LM4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="LN4">
+        <v>134.6742647446648</v>
+      </c>
+      <c r="LO4">
+        <v>62.66146582547245</v>
+      </c>
+      <c r="LP4">
+        <v>0.3901485638663085</v>
+      </c>
+      <c r="LQ4">
+        <v>6.580238617257233</v>
+      </c>
+      <c r="LR4">
+        <v>27.32918519718847</v>
+      </c>
+      <c r="LS4">
+        <v>54.87488482450545</v>
+      </c>
+      <c r="LT4">
+        <v>0.3377705344358202</v>
+      </c>
+      <c r="LU4">
+        <v>0.3526277534793014</v>
+      </c>
+      <c r="LV4">
+        <v>18.64529718692721</v>
+      </c>
+      <c r="LW4">
+        <v>5.924373644150315</v>
+      </c>
+      <c r="LX4">
+        <v>13.12090921811141</v>
+      </c>
+      <c r="LY4">
+        <v>110.3709289272695</v>
+      </c>
+      <c r="LZ4">
+        <v>213.6400674441924</v>
+      </c>
+      <c r="MA4">
+        <v>0.3862819603638895</v>
+      </c>
+      <c r="MB4">
+        <v>93.9344345264381</v>
+      </c>
+      <c r="MC4">
+        <v>19.56981216995607</v>
+      </c>
+      <c r="MD4">
+        <v>57.1587804410527</v>
+      </c>
+      <c r="ME4">
+        <v>84.13834454711977</v>
+      </c>
+      <c r="MF4">
+        <v>24.34081368886141</v>
+      </c>
+      <c r="MG4">
+        <v>144.5642423419252</v>
+      </c>
+      <c r="MH4">
+        <v>48.95537039558461</v>
+      </c>
+      <c r="MI4">
+        <v>161.420460315944</v>
+      </c>
+      <c r="MJ4">
+        <v>33.35989214075077</v>
+      </c>
+      <c r="MK4">
+        <v>374.852493205731</v>
+      </c>
+      <c r="ML4">
+        <v>305.4508721135803</v>
+      </c>
+      <c r="MM4">
+        <v>37.33967708273828</v>
+      </c>
+      <c r="MN4">
+        <v>294.6535047922584</v>
+      </c>
+      <c r="MO4">
+        <v>48.99675713262445</v>
+      </c>
+      <c r="MP4">
+        <v>72.23533176977176</v>
+      </c>
+      <c r="MQ4">
+        <v>20.44829017636447</v>
+      </c>
+      <c r="MR4">
+        <v>177.4973966524688</v>
+      </c>
+      <c r="MS4">
+        <v>0.3892362011087867</v>
+      </c>
+      <c r="MT4">
+        <v>161.4742828452045</v>
+      </c>
+      <c r="MU4">
+        <v>0.3515374543958126</v>
+      </c>
+      <c r="MV4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="MW4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="MX4">
+        <v>93.51124003333013</v>
+      </c>
+      <c r="MY4">
+        <v>51.36306328777975</v>
+      </c>
+      <c r="MZ4">
+        <v>9.197375135212219</v>
+      </c>
+      <c r="NA4">
+        <v>115.3980372129508</v>
+      </c>
+      <c r="NB4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="NC4">
+        <v>121.2918428403876</v>
+      </c>
+      <c r="ND4">
+        <v>56.06260819874323</v>
+      </c>
+      <c r="NE4">
+        <v>3.551267285208247</v>
+      </c>
+      <c r="NF4">
+        <v>33.47397676895334</v>
+      </c>
+      <c r="NG4">
+        <v>13.35193195541825</v>
+      </c>
+      <c r="NH4">
+        <v>44.88364738352698</v>
+      </c>
+      <c r="NI4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="NJ4">
+        <v>111.0111491238274</v>
+      </c>
+      <c r="NK4">
+        <v>0.3524202560676896</v>
+      </c>
+      <c r="NL4">
+        <v>12.52600977257207</v>
+      </c>
+      <c r="NM4">
+        <v>32.03512036615524</v>
+      </c>
+      <c r="NN4">
+        <v>14.3113266118536</v>
+      </c>
+      <c r="NO4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="NP4">
+        <v>48.41086068815195</v>
+      </c>
+      <c r="NQ4">
+        <v>12.34310930516439</v>
+      </c>
+      <c r="NR4">
+        <v>0.3375368589116439</v>
+      </c>
+      <c r="NS4">
+        <v>66.85527170437733</v>
+      </c>
+      <c r="NT4">
+        <v>11.28653790709464</v>
+      </c>
+      <c r="NU4">
+        <v>156.3068257321925</v>
+      </c>
+      <c r="NV4">
+        <v>26.0218624906415</v>
+      </c>
+      <c r="NW4">
+        <v>52.9542504173814</v>
+      </c>
+      <c r="NX4">
+        <v>42.04523924516685</v>
+      </c>
+      <c r="NY4">
+        <v>30.88675779527057</v>
+      </c>
+      <c r="NZ4">
+        <v>55.29424417638145</v>
+      </c>
+      <c r="OA4">
+        <v>2.750901455337933</v>
+      </c>
+      <c r="OB4">
+        <v>34.71002663637235</v>
+      </c>
+      <c r="OC4">
+        <v>0.3778622514369476</v>
+      </c>
+      <c r="OD4">
+        <v>57.40103787687393</v>
+      </c>
+      <c r="OE4">
+        <v>34.54555629672546</v>
+      </c>
+      <c r="OF4">
+        <v>74.24542309652502</v>
+      </c>
+      <c r="OG4">
+        <v>0.3468693280179222</v>
+      </c>
+      <c r="OH4">
+        <v>0.3455183131971792</v>
+      </c>
+      <c r="OI4">
+        <v>0.349371065592507</v>
+      </c>
+      <c r="OJ4">
+        <v>59.88878269854048</v>
+      </c>
+      <c r="OK4">
+        <v>0.3433026051473499</v>
       </c>
     </row>
   </sheetData>
